--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,110 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>144900</v>
+      </c>
+      <c r="F8" s="3">
         <v>158400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>168500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>173100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>125900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>142400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>162100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>177800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -774,38 +781,44 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>149400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>115700</v>
+      </c>
+      <c r="F9" s="3">
         <v>127900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>133100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>136100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>99000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>112100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>126400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>138900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -818,38 +831,44 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F10" s="3">
         <v>30500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>35400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>37000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>26900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>30300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>35700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -862,8 +881,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +905,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +951,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,38 +1001,44 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
         <v>200</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
       </c>
       <c r="I14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1012,16 +1051,22 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2600</v>
       </c>
       <c r="F15" s="3">
         <v>2700</v>
@@ -1030,14 +1075,14 @@
         <v>2600</v>
       </c>
       <c r="H15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="3">
         <v>2500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1047,17 +1092,23 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,40 +1122,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>146100</v>
+      </c>
+      <c r="F17" s="3">
         <v>157600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>162100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>167000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>126100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>141500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>156900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>170900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1113,40 +1166,46 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1218,14 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1242,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1203,11 +1270,11 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1221,38 +1288,44 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>8500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1265,38 +1338,44 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1309,82 +1388,94 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1397,8 +1488,14 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1538,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1688,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1738,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1788,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1838,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1731,11 +1870,11 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -1749,52 +1888,64 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1988,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2117,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,38 +2137,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F41" s="3">
         <v>33500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>30200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>31100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>26600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>37400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>35600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>33100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2005,13 +2178,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,82 +2233,94 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F43" s="3">
         <v>21400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>20300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>27100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>19600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>23900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>25800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>24800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>160900</v>
+      </c>
+      <c r="F44" s="3">
         <v>126200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>118500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>143200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>167400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>127200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>115300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>120200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2142,8 +2333,14 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2151,28 +2348,28 @@
         <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="F45" s="3">
         <v>3000</v>
       </c>
       <c r="G45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2186,37 +2383,43 @@
       <c r="P45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>211700</v>
+      </c>
+      <c r="F46" s="3">
         <v>184100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>172300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>204500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>216700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>191500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>179300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>180100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
@@ -2228,84 +2431,96 @@
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3">
         <v>29200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>40600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>40600</v>
       </c>
       <c r="N47" s="3">
         <v>40600</v>
       </c>
       <c r="O47" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="P47" s="3">
         <v>40600</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>40700</v>
+      </c>
+      <c r="R47" s="3">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>86900</v>
+      </c>
+      <c r="F48" s="3">
         <v>81300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>80300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>79600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>78000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>77000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>72000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>73400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,38 +2533,44 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F49" s="3">
         <v>108900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>105000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>106000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>107000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>97200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>95800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>97100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2362,8 +2583,14 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2633,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2683,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,37 +2704,43 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,40 +2783,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>428100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>406600</v>
+      </c>
+      <c r="F54" s="3">
         <v>374600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>357900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>390400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>402100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>365900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>347300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>350900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>40900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>41000</v>
       </c>
       <c r="N54" s="3">
         <v>40900</v>
@@ -2580,10 +2831,16 @@
         <v>41000</v>
       </c>
       <c r="P54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2857,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,40 +2877,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>11600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>10500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2660,172 +2921,196 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>149900</v>
+      </c>
+      <c r="F58" s="3">
         <v>113300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>99200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>128100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>147900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>109700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>98200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>102300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F59" s="3">
         <v>15200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>13700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>18000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>15800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>14000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>15400</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>174700</v>
+      </c>
+      <c r="F60" s="3">
         <v>138900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>121500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>157700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>172400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>135900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>121700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>127400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F61" s="3">
         <v>17100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>16800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>17800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>19000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>16800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>16300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>17000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2838,38 +3123,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F62" s="3">
         <v>82500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>82300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>80500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>79300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>80900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>75800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>75900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2882,8 +3173,14 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3223,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3273,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3323,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>270300</v>
+      </c>
+      <c r="F66" s="3">
         <v>238600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>220600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>256100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>270700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>233500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>213800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>220400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3397,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3443,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,38 +3493,44 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>60900</v>
+      </c>
+      <c r="F70" s="3">
         <v>59300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>57700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>56200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>55000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>55000</v>
       </c>
       <c r="I70" s="3">
         <v>55000</v>
       </c>
       <c r="J70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L70" s="3">
         <v>55200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3543,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3593,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3693,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3743,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3793,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F76" s="3">
         <v>76800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>79600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>78100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>76500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>77500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>78500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>75300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>40700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>40800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>41000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3893,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,16 +4022,18 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2600</v>
       </c>
       <c r="F83" s="3">
         <v>2700</v>
@@ -3645,20 +4042,20 @@
         <v>2600</v>
       </c>
       <c r="H83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3671,8 +4068,14 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +4118,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +4168,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4218,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4268,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4318,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>30100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,38 +4392,40 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3997,8 +4438,14 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4488,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4538,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-11200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-78300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>11600</v>
-      </c>
-      <c r="L94" s="3">
-        <v>100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>100</v>
       </c>
       <c r="N94" s="3">
         <v>100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4612,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4162,14 +4629,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4658,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4708,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4758,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4808,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-28300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-21300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>23400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>90900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-11400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,38 +4908,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-10800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>18300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4450,9 +4953,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E8" s="3">
         <v>190900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>144900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>158400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>168500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>173100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>125900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>142400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>162100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>177800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,41 +791,44 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E9" s="3">
         <v>149400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>133100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>136100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>99000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>126400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>138900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -837,41 +844,44 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E10" s="3">
         <v>41500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>29200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>35400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>26900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>30300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38900</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,25 +1024,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>200</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
@@ -1034,14 +1054,14 @@
         <v>200</v>
       </c>
       <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1057,35 +1077,38 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2700</v>
       </c>
       <c r="F15" s="3">
         <v>2700</v>
       </c>
       <c r="G15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H15" s="3">
         <v>2600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,8 +1121,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,91 +1150,95 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>201300</v>
+      </c>
+      <c r="E17" s="3">
         <v>184100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>157600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>162100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>167000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>126100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>141500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>156900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>170900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E18" s="3">
         <v>6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1276,8 +1310,8 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
@@ -1294,41 +1328,44 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E21" s="3">
         <v>9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1344,41 +1381,44 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1394,49 +1434,52 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E23" s="3">
         <v>4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1444,40 +1487,43 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1200</v>
       </c>
       <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>1200</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,49 +1593,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1594,49 +1646,52 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1876,8 +1946,8 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
@@ -1894,49 +1964,52 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2070,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2044,63 +2123,69 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E41" s="3">
         <v>43300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2184,13 +2271,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,43 +2329,46 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E43" s="3">
         <v>16500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2283,47 +2376,50 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E44" s="3">
         <v>153300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>160900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>126200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>118500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>143200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>167400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>127200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>115300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>120200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2339,13 +2435,16 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
         <v>3000</v>
@@ -2354,25 +2453,25 @@
         <v>3000</v>
       </c>
       <c r="G45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2389,40 +2488,43 @@
       <c r="R45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E46" s="3">
         <v>216100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>211700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>184100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>172300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>204500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>216700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>191500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>179300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>180100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
@@ -2437,10 +2539,13 @@
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2465,17 +2570,17 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>29200</v>
-      </c>
-      <c r="N47" s="3">
-        <v>40600</v>
       </c>
       <c r="O47" s="3">
         <v>40600</v>
@@ -2484,46 +2589,49 @@
         <v>40600</v>
       </c>
       <c r="Q47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="R47" s="3">
         <v>40700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E48" s="3">
         <v>105000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>86900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>81300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>79600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>78000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>77000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>72000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>73400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2539,41 +2647,44 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E49" s="3">
         <v>106800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>107800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>108900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>105000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>106000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>107000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>97200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>95800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,13 +2806,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2710,20 +2830,20 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2733,14 +2853,17 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>414700</v>
+      </c>
+      <c r="E54" s="3">
         <v>428100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>406600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>374600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>357900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>390400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>402100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>365900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>347300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>350900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>41000</v>
       </c>
       <c r="R54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,99 +3009,103 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E58" s="3">
         <v>150800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>149900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>113300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>128100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>147900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>109700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>98200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>102300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -2979,141 +3113,150 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E59" s="3">
         <v>20700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15400</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E60" s="3">
         <v>181500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>174700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>138900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>121500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>157700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>172400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>135900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>121700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>127400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E61" s="3">
         <v>7700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E62" s="3">
         <v>99000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>82500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>82300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>79300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E66" s="3">
         <v>288300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>270300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>238600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>220600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>256100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>270700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>233500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>213800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,28 +3664,31 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E70" s="3">
         <v>62500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>60900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>59300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>57700</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>56200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>55000</v>
       </c>
       <c r="J70" s="3">
         <v>55000</v>
@@ -3529,11 +3697,11 @@
         <v>55000</v>
       </c>
       <c r="L70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="M70" s="3">
         <v>55200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-400</v>
       </c>
       <c r="R72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E76" s="3">
         <v>77300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>76800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>79600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>78100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>76500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>77500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>40800</v>
       </c>
       <c r="P76" s="3">
         <v>40800</v>
       </c>
       <c r="Q76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="R76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,104 +4088,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,41 +4222,42 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2700</v>
       </c>
       <c r="F83" s="3">
         <v>2700</v>
       </c>
       <c r="G83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,46 +4538,49 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E89" s="3">
         <v>16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4372,10 +4589,13 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,41 +4614,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,43 +4771,46 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11600</v>
-      </c>
-      <c r="N94" s="3">
-        <v>100</v>
       </c>
       <c r="O94" s="3">
         <v>100</v>
@@ -4589,13 +4819,16 @@
         <v>100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4635,11 +4869,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,47 +5057,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>90900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -4862,10 +5108,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,41 +5163,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E102" s="3">
         <v>11800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4959,9 +5211,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E8" s="3">
         <v>214000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>190900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>144900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>158400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>168500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>173100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>125900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>142400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>162100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>177800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,44 +798,47 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E9" s="3">
         <v>170000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>149400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>133100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>136100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>99000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>126400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>138900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -847,44 +854,47 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E10" s="3">
         <v>44000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>30500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>35400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>26900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,28 +1044,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -1057,14 +1077,14 @@
         <v>200</v>
       </c>
       <c r="L14" s="3">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1080,38 +1100,41 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2700</v>
       </c>
       <c r="G15" s="3">
         <v>2700</v>
       </c>
       <c r="H15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I15" s="3">
         <v>2600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1124,8 +1147,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,97 +1177,101 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E17" s="3">
         <v>201300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>184100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>146100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>157600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>162100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>167000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>126100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>141500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>156900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>170900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E18" s="3">
         <v>12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1313,8 +1347,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1331,44 +1365,47 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E21" s="3">
         <v>15300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1384,44 +1421,47 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1437,52 +1477,55 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E23" s="3">
         <v>10600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1490,43 +1533,46 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1200</v>
       </c>
       <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>1200</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,52 +1645,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1649,52 +1701,55 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E27" s="3">
         <v>6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1949,8 +2019,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -1967,52 +2037,55 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,52 +2149,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2126,66 +2205,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E41" s="3">
         <v>62100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2274,13 +2361,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,46 +2422,49 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E43" s="3">
         <v>30800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2379,50 +2472,53 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E44" s="3">
         <v>100300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>153300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>160900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>126200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>118500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>143200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>167400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>127200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>115300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>120200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2438,16 +2534,19 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3000</v>
       </c>
       <c r="F45" s="3">
         <v>3000</v>
@@ -2456,25 +2555,25 @@
         <v>3000</v>
       </c>
       <c r="H45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
@@ -2491,43 +2590,46 @@
       <c r="S45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E46" s="3">
         <v>196300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>216100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>211700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>184100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>172300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>204500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>216700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>191500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>179300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>180100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
@@ -2542,10 +2644,13 @@
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2573,17 +2678,17 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>29200</v>
-      </c>
-      <c r="O47" s="3">
-        <v>40600</v>
       </c>
       <c r="P47" s="3">
         <v>40600</v>
@@ -2592,49 +2697,52 @@
         <v>40600</v>
       </c>
       <c r="R47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="S47" s="3">
         <v>40700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E48" s="3">
         <v>107900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>105000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>86900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>81300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>80300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>79600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>78000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>77000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>72000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>73400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2650,44 +2758,47 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E49" s="3">
         <v>110100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>106800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>107800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>108900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>105000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>106000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>107000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>97200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>95800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>97100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,16 +2926,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2833,20 +2953,20 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2856,14 +2976,17 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>397900</v>
+      </c>
+      <c r="E54" s="3">
         <v>414700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>428100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>406600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>374600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>357900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>390400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>402100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>365900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>347300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>350900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>41000</v>
       </c>
       <c r="S54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,105 +3140,109 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E57" s="3">
         <v>13800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E58" s="3">
         <v>109600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>150800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>149900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>113300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>99200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>128100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>147900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>109700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>98200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>102300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3116,150 +3250,159 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E59" s="3">
         <v>25900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15400</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E60" s="3">
         <v>149200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>181500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>174700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>138900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>121500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>157700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>172400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>135900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>121700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>127400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
       <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E61" s="3">
         <v>15700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3275,44 +3418,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E62" s="3">
         <v>101500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>99000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>80000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>82500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>82300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>79300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>248700</v>
+      </c>
+      <c r="E66" s="3">
         <v>266400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>270300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>238600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>220600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>256100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>270700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>233500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>213800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>220400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
       <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,31 +3832,34 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E70" s="3">
         <v>64200</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>62500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>60900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>59300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>57700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>56200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>55000</v>
       </c>
       <c r="K70" s="3">
         <v>55000</v>
@@ -3700,11 +3868,11 @@
         <v>55000</v>
       </c>
       <c r="M70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="N70" s="3">
         <v>55200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E72" s="3">
         <v>5900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-400</v>
       </c>
       <c r="S72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E76" s="3">
         <v>84100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>77300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>75400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>76800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>79600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>78100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>76500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>78500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>40800</v>
       </c>
       <c r="Q76" s="3">
         <v>40800</v>
       </c>
       <c r="R76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="S76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,110 +4280,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,44 +4421,45 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2700</v>
       </c>
       <c r="G83" s="3">
         <v>2700</v>
       </c>
       <c r="H83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I83" s="3">
         <v>2600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,49 +4755,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E89" s="3">
         <v>67500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4592,10 +4809,13 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,44 +4835,45 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,46 +5001,49 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-78300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11600</v>
-      </c>
-      <c r="O94" s="3">
-        <v>100</v>
       </c>
       <c r="P94" s="3">
         <v>100</v>
@@ -4822,13 +5052,16 @@
         <v>100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4872,11 +5106,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,50 +5303,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-44800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-28300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>23400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>90900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5111,10 +5357,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,44 +5415,47 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E102" s="3">
         <v>18800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-10800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5214,9 +5466,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,130 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>196600</v>
+      </c>
+      <c r="E8" s="3">
         <v>215700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>214000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>190900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>144900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>158400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>168500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>173100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>125900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>142400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>162100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>177800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,47 +804,50 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E9" s="3">
         <v>166400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>170000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>149400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>133100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>136100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>99000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>126400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>138900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -857,47 +863,50 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E10" s="3">
         <v>49300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>44000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>41500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>30500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38900</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -913,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,31 +1063,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
@@ -1080,14 +1099,14 @@
         <v>200</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1103,41 +1122,44 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2700</v>
       </c>
       <c r="H15" s="3">
         <v>2700</v>
       </c>
       <c r="I15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1150,8 +1172,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,103 +1203,107 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E17" s="3">
         <v>198200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>201300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>184100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>146100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>157600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>162100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>167000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>126100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>141500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>156900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>170900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E18" s="3">
         <v>17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1290,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1344,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1350,8 +1383,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1368,47 +1401,50 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E21" s="3">
         <v>20300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1424,47 +1460,50 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1480,55 +1519,58 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>15800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1536,46 +1578,49 @@
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1200</v>
       </c>
       <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>1200</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1592,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,55 +1696,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>11600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1704,55 +1755,58 @@
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>9900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1760,8 +1814,11 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2050,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2022,8 +2091,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -2040,55 +2109,58 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2096,8 +2168,11 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,55 +2227,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2208,69 +2286,75 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2398,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E41" s="3">
         <v>81700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2364,13 +2450,16 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,49 +2514,52 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E43" s="3">
         <v>20700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2475,53 +2567,56 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>116300</v>
+      </c>
+      <c r="E44" s="3">
         <v>71500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>153300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>160900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>126200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>118500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>143200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>167400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>127200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>115300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>120200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2537,19 +2632,22 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3000</v>
       </c>
       <c r="G45" s="3">
         <v>3000</v>
@@ -2558,25 +2656,25 @@
         <v>3000</v>
       </c>
       <c r="I45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -2593,46 +2691,49 @@
       <c r="T45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>203900</v>
+      </c>
+      <c r="E46" s="3">
         <v>176800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>196300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>216100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>211700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>184100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>172300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>204500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>216700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>191500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>179300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>180100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
@@ -2647,10 +2748,13 @@
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2681,17 +2785,17 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>29200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>40600</v>
       </c>
       <c r="Q47" s="3">
         <v>40600</v>
@@ -2700,52 +2804,55 @@
         <v>40600</v>
       </c>
       <c r="S47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="T47" s="3">
         <v>40700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E48" s="3">
         <v>111600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>107900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>105000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>86900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>81300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>80300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>79600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>78000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>77000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>72000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>73400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2761,47 +2868,50 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E49" s="3">
         <v>109200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>110100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>106800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>107800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>108900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>105000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>106000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>107000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>95800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>97100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,19 +3045,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2956,20 +3075,20 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2979,14 +3098,17 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E54" s="3">
         <v>397900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>414700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>428100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>406600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>374600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>357900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>390400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>402100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>365900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>347300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>350900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>41000</v>
       </c>
       <c r="T54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,111 +3270,115 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E57" s="3">
         <v>15500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E58" s="3">
         <v>82600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>109600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>150800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>149900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>113300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>99200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>128100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>147900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>109700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>98200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>102300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3253,159 +3386,168 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E59" s="3">
         <v>39700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15400</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>174200</v>
+      </c>
+      <c r="E60" s="3">
         <v>137800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>149200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>181500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>174700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>138900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>121500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>157700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>172400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>135900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>121700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>127400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E61" s="3">
         <v>10500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,47 +3563,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>105800</v>
+      </c>
+      <c r="E62" s="3">
         <v>100400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>101500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>99000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>82500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>82300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>79300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>75800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>75900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288400</v>
+      </c>
+      <c r="E66" s="3">
         <v>248700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>266400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>270300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>238600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>220600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>256100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>270700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>233500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>213800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>220400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
       <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3844,25 +4011,25 @@
         <v>55000</v>
       </c>
       <c r="E70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F70" s="3">
         <v>64200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>62500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>60900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>59300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>57700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>56200</v>
-      </c>
-      <c r="K70" s="3">
-        <v>55000</v>
       </c>
       <c r="L70" s="3">
         <v>55000</v>
@@ -3871,11 +4038,11 @@
         <v>55000</v>
       </c>
       <c r="N70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="O70" s="3">
         <v>55200</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-400</v>
       </c>
       <c r="T72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E76" s="3">
         <v>94200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>84100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>77300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>75400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>76800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>79600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>78100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>75300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>40800</v>
       </c>
       <c r="R76" s="3">
         <v>40800</v>
       </c>
       <c r="S76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="T76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,116 +4471,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -4400,8 +4594,11 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,47 +4619,48 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2700</v>
       </c>
       <c r="H83" s="3">
         <v>2700</v>
       </c>
       <c r="I83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4478,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,52 +4971,55 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E89" s="3">
         <v>58300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>67500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -4812,10 +5028,13 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,47 +5055,48 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4892,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,49 +5230,52 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11600</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
       </c>
       <c r="Q94" s="3">
         <v>100</v>
@@ -5055,13 +5284,16 @@
         <v>100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5314,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5109,11 +5342,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5138,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,53 +5548,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-44800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-28300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-21300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>90900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5360,10 +5605,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,47 +5666,50 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E102" s="3">
         <v>19600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5469,9 +5720,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,144 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>322800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>271000</v>
+      </c>
+      <c r="F8" s="3">
         <v>196600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>215700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>214000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>190900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>144900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>158400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>168500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>173100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>125900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>142400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>162100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>177800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
@@ -807,53 +815,59 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>236600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>206900</v>
+      </c>
+      <c r="F9" s="3">
         <v>152400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>166400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>170000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>149400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>115700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>127900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>133100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>136100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>99000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>112100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>126400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>138900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -866,53 +880,59 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F10" s="3">
         <v>44200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>49300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>44000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>41500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>29200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>30500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>37000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>26900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>30300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>35700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>38900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,8 +945,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +974,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,8 +1035,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,53 +1100,59 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
       </c>
       <c r="L14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>200</v>
       </c>
       <c r="N14" s="3">
+        <v>200</v>
+      </c>
+      <c r="O14" s="3">
+        <v>200</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1125,31 +1165,37 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G15" s="3">
         <v>2800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2600</v>
       </c>
       <c r="H15" s="3">
         <v>2700</v>
       </c>
       <c r="I15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="3">
         <v>2700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
@@ -1158,14 +1204,14 @@
         <v>2600</v>
       </c>
       <c r="M15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,17 +1221,23 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,55 +1256,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>279300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>248100</v>
+      </c>
+      <c r="F17" s="3">
         <v>186000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>198200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>201300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>184100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>146100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>157600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>162100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>167000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>126100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>141500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>156900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>170900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1261,55 +1315,61 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F18" s="3">
         <v>10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>17500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1322,8 +1382,14 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,31 +1411,33 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-6800</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-6700</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-14500</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1386,11 +1454,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
@@ -1404,53 +1472,59 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13800</v>
+        <v>40000</v>
       </c>
       <c r="E21" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>20300</v>
       </c>
-      <c r="F21" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>9400</v>
-      </c>
       <c r="H21" s="3">
-        <v>1600</v>
+        <v>12500</v>
       </c>
       <c r="I21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>8800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>7900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>8500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,53 +1537,59 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1522,112 +1602,124 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8800</v>
+        <v>34800</v>
       </c>
       <c r="E23" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G23" s="3">
         <v>15800</v>
       </c>
-      <c r="F23" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4300</v>
-      </c>
       <c r="H23" s="3">
-        <v>-3600</v>
+        <v>7800</v>
       </c>
       <c r="I23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1640,8 +1732,14 @@
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1797,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6500</v>
+        <v>25300</v>
       </c>
       <c r="E26" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="G26" s="3">
         <v>11600</v>
       </c>
-      <c r="F26" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5300</v>
+        <v>24100</v>
       </c>
       <c r="E27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G27" s="3">
         <v>9900</v>
       </c>
-      <c r="F27" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2100</v>
+        <v>3600</v>
       </c>
       <c r="I27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1992,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +2057,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2122,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,31 +2187,37 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2094,11 +2234,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
@@ -2112,67 +2252,79 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5300</v>
+        <v>24100</v>
       </c>
       <c r="E33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G33" s="3">
         <v>9900</v>
       </c>
-      <c r="F33" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1300</v>
-      </c>
       <c r="H33" s="3">
-        <v>-2100</v>
+        <v>3600</v>
       </c>
       <c r="I33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2382,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5300</v>
+        <v>24100</v>
       </c>
       <c r="E35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G35" s="3">
         <v>9900</v>
       </c>
-      <c r="F35" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1300</v>
-      </c>
       <c r="H35" s="3">
-        <v>-2100</v>
+        <v>3600</v>
       </c>
       <c r="I35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2546,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,53 +2571,55 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F41" s="3">
         <v>63500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>81700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>62100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>43300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>31500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>33500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>26600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>37400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>35600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2453,13 +2627,19 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,112 +2697,124 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F43" s="3">
         <v>21400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>20700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>30800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>16500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>16400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>21400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>20300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>27100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>19600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>23900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>25800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>24800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>112500</v>
+      </c>
+      <c r="F44" s="3">
         <v>116300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>71500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>100300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>153300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>160900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>126200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>118500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>143200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>167400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>127200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>115300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>120200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2635,52 +2827,58 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3000</v>
       </c>
       <c r="I45" s="3">
         <v>3000</v>
       </c>
       <c r="J45" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="K45" s="3">
         <v>3000</v>
       </c>
       <c r="L45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -2694,52 +2892,58 @@
       <c r="U45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>233900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>225400</v>
+      </c>
+      <c r="F46" s="3">
         <v>203900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>176800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>196300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>216100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>211700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>184100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>172300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>204500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>216700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>191500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>179300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>180100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
@@ -2751,10 +2955,16 @@
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2788,77 +2998,83 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>29200</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>40600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>40600</v>
       </c>
       <c r="S47" s="3">
         <v>40600</v>
       </c>
       <c r="T47" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="U47" s="3">
         <v>40600</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>40700</v>
+      </c>
+      <c r="W47" s="3">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>121900</v>
+      </c>
+      <c r="F48" s="3">
         <v>121800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>111600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>107900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>105000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>86900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>81300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>80300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>79600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>78000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>77000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>72000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>73400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2871,53 +3087,59 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F49" s="3">
         <v>117900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>109200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>110100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>106800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>107800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>108900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>105000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>106000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>107000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>97200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>95800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>97100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2930,8 +3152,14 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3217,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,8 +3282,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3057,16 +3297,16 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -3078,37 +3318,43 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,55 +3412,61 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>480100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>468400</v>
+      </c>
+      <c r="F54" s="3">
         <v>444000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>397900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>414700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>428100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>406600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>374600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>357900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>390400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>402100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>365900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>347300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>350900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>29500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>40900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>41000</v>
       </c>
       <c r="S54" s="3">
         <v>40900</v>
@@ -3223,10 +3475,16 @@
         <v>41000</v>
       </c>
       <c r="U54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="V54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3506,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,55 +3531,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>22700</v>
+      </c>
+      <c r="F57" s="3">
         <v>18100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>15500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>13800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>10500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>9700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3328,232 +3590,256 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F58" s="3">
         <v>129600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>82600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>109600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>150800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>149900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>113300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>99200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>128100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>147900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>109700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>98200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>102300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F59" s="3">
         <v>26500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>39700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>25900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>20700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>15200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>13700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>18000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>13900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>15800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>14000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>15400</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>170800</v>
+      </c>
+      <c r="F60" s="3">
         <v>174200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>137800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>149200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>181500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>174700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>138900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>121500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>157700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>172400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>135900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>121700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>127400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F61" s="3">
         <v>8400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>10500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>15700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>15600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>17100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>16800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>19000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>16300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>17000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3566,53 +3852,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105800</v>
+        <v>130500</v>
       </c>
       <c r="E62" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>120900</v>
+      </c>
+      <c r="G62" s="3">
         <v>100400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>101500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>99000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>80000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>82500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>82300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>80500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>79300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>80900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>75800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>75900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3625,8 +3917,14 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3982,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +4047,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +4112,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>288400</v>
+        <v>283600</v>
       </c>
       <c r="E66" s="3">
+        <v>298200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>303500</v>
+      </c>
+      <c r="G66" s="3">
         <v>248700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>266400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>288300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>270300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>238600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>220600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>256100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>270700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>233500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>213800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>220400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4206,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4267,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4332,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4014,41 +4350,41 @@
         <v>55000</v>
       </c>
       <c r="F70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="H70" s="3">
         <v>64200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>62500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>60900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>59300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>57700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>56200</v>
-      </c>
-      <c r="L70" s="3">
-        <v>55000</v>
-      </c>
-      <c r="M70" s="3">
-        <v>55000</v>
       </c>
       <c r="N70" s="3">
         <v>55000</v>
       </c>
       <c r="O70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="P70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>55200</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4061,8 +4397,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4462,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21000</v>
+        <v>48900</v>
       </c>
       <c r="E72" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G72" s="3">
         <v>15800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4592,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4657,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4722,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100600</v>
+        <v>141500</v>
       </c>
       <c r="E76" s="3">
+        <v>115200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>85500</v>
+      </c>
+      <c r="G76" s="3">
         <v>94200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>84100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>77300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>75400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>76800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>79600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>78100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>76500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>77500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>78500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>75300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>28400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>40700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>40800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>41000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4852,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5300</v>
+        <v>24100</v>
       </c>
       <c r="E81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G81" s="3">
         <v>9900</v>
       </c>
-      <c r="F81" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1300</v>
-      </c>
       <c r="H81" s="3">
-        <v>-2100</v>
+        <v>3600</v>
       </c>
       <c r="I81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,31 +5016,33 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E83" s="3">
         <v>3200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G83" s="3">
         <v>2800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2600</v>
       </c>
       <c r="H83" s="3">
         <v>2700</v>
       </c>
       <c r="I83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J83" s="3">
         <v>2700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2600</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
@@ -4653,20 +5051,20 @@
         <v>2600</v>
       </c>
       <c r="M83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4679,8 +5077,14 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +5142,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5207,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5272,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5337,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5402,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>58300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>67500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>16100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-27800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>30100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>28900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-23000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,53 +5496,55 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5115,8 +5557,14 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5622,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5687,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23300</v>
+        <v>-7100</v>
       </c>
       <c r="E94" s="3">
         <v>-6200</v>
       </c>
       <c r="F94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-11200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-78300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>11600</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>100</v>
       </c>
       <c r="S94" s="3">
         <v>100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5781,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5345,14 +5813,14 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5374,8 +5842,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5907,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5972,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +6037,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F100" s="3">
         <v>36000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-32400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-44800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>34700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-28300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-21300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>23400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>90900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,53 +6167,59 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-18100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>19600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>18800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>11800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-10800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>18300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5723,9 +6227,15 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,151 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>318700</v>
+      </c>
+      <c r="E8" s="3">
         <v>322800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>271000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>196600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>215700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>214000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>190900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>144900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>158400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>168500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>173100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>125900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>142400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>162100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>177800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
@@ -821,56 +825,59 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>228500</v>
+      </c>
+      <c r="E9" s="3">
         <v>236600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>206900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>152400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>166400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>170000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>149400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>127900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>133100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>99000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>126400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>138900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -886,56 +893,59 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>90200</v>
+      </c>
+      <c r="E10" s="3">
         <v>86200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>44200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>49300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>41500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>29200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>30500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>26900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,40 +1123,43 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>200</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
@@ -1148,14 +1168,14 @@
         <v>200</v>
       </c>
       <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1171,50 +1191,53 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3">
         <v>3300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3200</v>
       </c>
       <c r="F15" s="3">
         <v>3200</v>
       </c>
       <c r="G15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H15" s="3">
         <v>2800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
       </c>
       <c r="L15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M15" s="3">
         <v>2600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1250,8 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,121 +1284,125 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E17" s="3">
         <v>279300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>248100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>186000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>198200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>201300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>184100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>146100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>162100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>167000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>126100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>141500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>156900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>170900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E18" s="3">
         <v>43500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1388,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,35 +1446,36 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1460,8 +1494,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
@@ -1478,56 +1512,59 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E21" s="3">
         <v>40000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1543,56 +1580,59 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
         <v>1900</v>
       </c>
       <c r="F22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1608,64 +1648,67 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E23" s="3">
         <v>34800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
@@ -1673,55 +1716,58 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>9500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1200</v>
       </c>
       <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>1200</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,64 +1852,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E26" s="3">
         <v>25300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
@@ -1868,64 +1920,67 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E27" s="3">
         <v>24100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
@@ -1933,8 +1988,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,35 +2260,38 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>6800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2240,8 +2310,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
@@ -2258,64 +2328,67 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E33" s="3">
         <v>24100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
@@ -2323,8 +2396,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,64 +2464,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E35" s="3">
         <v>24100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
@@ -2453,78 +2532,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,56 +2659,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E41" s="3">
         <v>104300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>79500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>81700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2633,13 +2720,16 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,58 +2793,61 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E43" s="3">
         <v>38200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2762,62 +2855,65 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E44" s="3">
         <v>87300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>112500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>116300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>71500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>100300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>153300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>160900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>126200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>118500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>143200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>167400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>127200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>115300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>120200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2833,28 +2929,31 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3000</v>
       </c>
       <c r="J45" s="3">
         <v>3000</v>
@@ -2863,25 +2962,25 @@
         <v>3000</v>
       </c>
       <c r="L45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2000</v>
-      </c>
-      <c r="R45" s="3">
-        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
@@ -2898,55 +2997,58 @@
       <c r="W45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E46" s="3">
         <v>233900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>225400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>203900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>176800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>196300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>216100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>211700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>172300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>204500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>216700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>191500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>179300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>180100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
@@ -2961,10 +3063,13 @@
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3004,17 +3109,17 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>29200</v>
-      </c>
-      <c r="S47" s="3">
-        <v>40600</v>
       </c>
       <c r="T47" s="3">
         <v>40600</v>
@@ -3023,61 +3128,64 @@
         <v>40600</v>
       </c>
       <c r="V47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="W47" s="3">
         <v>40700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>147700</v>
+      </c>
+      <c r="E48" s="3">
         <v>126400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>121900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>121800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>111600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>107900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>105000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>86900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>81300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>80300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>79600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>78000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>77000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>72000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>73400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3093,56 +3201,59 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>171300</v>
+      </c>
+      <c r="E49" s="3">
         <v>119300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>120600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>117900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>109200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>110100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>106800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>107800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>108900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>105000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>106000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>107000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>97200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>95800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>97100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,13 +3405,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
@@ -3303,13 +3423,13 @@
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3324,20 +3444,20 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3347,14 +3467,17 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>562300</v>
+      </c>
+      <c r="E54" s="3">
         <v>480100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>468400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>444000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>397900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>414700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>428100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>406600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>374600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>357900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>390400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>402100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>365900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>347300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>350900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>41000</v>
       </c>
       <c r="W54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,129 +3663,133 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E57" s="3">
         <v>27600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>22700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E58" s="3">
         <v>84900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>116900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>129600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>82600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>109600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>150800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>149900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>113300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>99200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>128100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>147900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>109700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>98200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>102300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
@@ -3663,186 +3797,195 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E59" s="3">
         <v>38900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15400</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E60" s="3">
         <v>151400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>170800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>174200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>137800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>149200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>181500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>174700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>138900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>121500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>157700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>172400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>135900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>121700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>127400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
       <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3858,56 +4001,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E62" s="3">
         <v>130500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>121000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>120900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>101500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>99000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>80000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>79300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>75900</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>327600</v>
+      </c>
+      <c r="E66" s="3">
         <v>283600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>298200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>303500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>248700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>266400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>288300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>270300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>238600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>256100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>270700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>233500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>213800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>220400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
       <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4356,25 +4524,25 @@
         <v>55000</v>
       </c>
       <c r="H70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="I70" s="3">
         <v>64200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>62500</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>60900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>59300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>57700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>56200</v>
-      </c>
-      <c r="N70" s="3">
-        <v>55000</v>
       </c>
       <c r="O70" s="3">
         <v>55000</v>
@@ -4383,11 +4551,11 @@
         <v>55000</v>
       </c>
       <c r="Q70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="R70" s="3">
         <v>55200</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E72" s="3">
         <v>48900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
       <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
         <v>-800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-500</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-400</v>
       </c>
       <c r="W72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E76" s="3">
         <v>141500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>85500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>94200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>84100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>77300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>75400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>78100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>78500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40700</v>
-      </c>
-      <c r="T76" s="3">
-        <v>40800</v>
       </c>
       <c r="U76" s="3">
         <v>40800</v>
       </c>
       <c r="V76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="W76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,134 +5047,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E81" s="3">
         <v>24100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
@@ -4993,8 +5188,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,56 +5216,57 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3200</v>
       </c>
       <c r="F83" s="3">
         <v>3200</v>
       </c>
       <c r="G83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2700</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
       </c>
       <c r="L83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,61 +5622,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>58800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>58300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>67500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5471,10 +5688,13 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,56 +5718,57 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,58 +5920,61 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-78300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>11600</v>
-      </c>
-      <c r="S94" s="3">
-        <v>100</v>
       </c>
       <c r="T94" s="3">
         <v>100</v>
@@ -5753,13 +5983,16 @@
         <v>100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5819,11 +6053,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,62 +6286,65 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>36000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-44800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>34700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-21300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>23400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>90900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6106,10 +6352,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,56 +6422,59 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E102" s="3">
         <v>24900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6233,9 +6485,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,164 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>322500</v>
+      </c>
+      <c r="F8" s="3">
         <v>318700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>322800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>271000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>196600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>215700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>214000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>190900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>144900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>158400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>168500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>173100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>125900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>142400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>162100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>177800</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
@@ -828,62 +835,68 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>238400</v>
+      </c>
+      <c r="F9" s="3">
         <v>228500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>236600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>206900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>152400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>166400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>170000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>149400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>115700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>127900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>133100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>136100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>99000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>112100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>126400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>138900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -896,62 +909,68 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>84100</v>
+      </c>
+      <c r="F10" s="3">
         <v>90200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>86200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>64100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>44200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>49300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>44000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>41500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>29200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>30500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>35400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>37000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>26900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>30300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>35700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>38900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -964,8 +983,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1015,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1085,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,62 +1159,68 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-5700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>200</v>
-      </c>
-      <c r="M14" s="3">
-        <v>100</v>
       </c>
       <c r="N14" s="3">
         <v>200</v>
       </c>
       <c r="O14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>200</v>
       </c>
       <c r="Q14" s="3">
+        <v>200</v>
+      </c>
+      <c r="R14" s="3">
+        <v>200</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>3200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1194,40 +1233,46 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F15" s="3">
         <v>3700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>2800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>2700</v>
       </c>
       <c r="L15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M15" s="3">
         <v>2700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2600</v>
       </c>
       <c r="N15" s="3">
         <v>2700</v>
@@ -1236,14 +1281,14 @@
         <v>2600</v>
       </c>
       <c r="P15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1253,17 +1298,23 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,64 +1336,66 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>337500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>296300</v>
+      </c>
+      <c r="F17" s="3">
         <v>280600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>279300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>248100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>186000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>198200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>201300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>184100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>146100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>157600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>162100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>167000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>126100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>141500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>156900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>170900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1351,64 +1404,70 @@
         <v>100</v>
       </c>
       <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F18" s="3">
         <v>38100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>43500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>22900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>17500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>5200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1421,8 +1480,14 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,41 +1512,43 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-14500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1497,11 +1564,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
@@ -1515,62 +1582,68 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F21" s="3">
         <v>44000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>40000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>19400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>20300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>12500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>7900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>8500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1583,62 +1656,68 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1651,130 +1730,142 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F23" s="3">
         <v>38300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>34800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>14300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1787,8 +1878,14 @@
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1952,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F26" s="3">
         <v>31000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>25300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>11600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F27" s="3">
         <v>29800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>24100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>9900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2174,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2248,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2322,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,41 +2396,47 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>14500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2313,11 +2452,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
@@ -2331,76 +2470,88 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F33" s="3">
         <v>29800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>24100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2618,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F35" s="3">
         <v>29800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>24100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2803,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,62 +2831,64 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>98100</v>
+      </c>
+      <c r="F41" s="3">
         <v>67000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>104300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>79500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>63500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>81700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>62100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>33500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>30200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>31100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>26600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>37400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>35600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>33100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2723,13 +2896,19 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,130 +2975,142 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F43" s="3">
         <v>31000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>38200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>29900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>21400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>30800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>16500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>16400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>21400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>20300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>27100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>19600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>23900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>25800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>24800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>242900</v>
+      </c>
+      <c r="F44" s="3">
         <v>140700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>87300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>112500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>116300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>71500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>100300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>153300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>160900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>126200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>118500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>143200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>167400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>127200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>115300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>120200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2932,61 +3123,67 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>3000</v>
       </c>
       <c r="L45" s="3">
         <v>3000</v>
       </c>
       <c r="M45" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="N45" s="3">
         <v>3000</v>
       </c>
       <c r="O45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>2900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
@@ -3000,61 +3197,67 @@
       <c r="X45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>427800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>375600</v>
+      </c>
+      <c r="F46" s="3">
         <v>242800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>233900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>225400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>203900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>176800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>196300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>216100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>211700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>184100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>172300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>204500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>216700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>191500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>179300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>180100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
@@ -3066,10 +3269,16 @@
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3112,86 +3321,92 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>29200</v>
-      </c>
-      <c r="T47" s="3">
-        <v>40600</v>
-      </c>
-      <c r="U47" s="3">
-        <v>40600</v>
       </c>
       <c r="V47" s="3">
         <v>40600</v>
       </c>
       <c r="W47" s="3">
-        <v>40700</v>
+        <v>40600</v>
       </c>
       <c r="X47" s="3">
         <v>40600</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>40700</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>152800</v>
+      </c>
+      <c r="F48" s="3">
         <v>147700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>126400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>121900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>121800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>111600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>107900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>105000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>86900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>81300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>80300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>79600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>78000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>77000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>72000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>73400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3204,62 +3419,68 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>168100</v>
+      </c>
+      <c r="F49" s="3">
         <v>171300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>119300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>120600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>117900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>109200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>110100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>106800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>107800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>108900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>105000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>106000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>107000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>97200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>95800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>97100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3272,8 +3493,14 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3567,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,34 +3641,40 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -3447,37 +3686,43 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,64 +3789,70 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>752800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>698100</v>
+      </c>
+      <c r="F54" s="3">
         <v>562300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>480100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>468400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>444000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>397900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>414700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>428100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>406600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>374600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>357900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>390400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>402100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>365900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>347300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>350900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>29500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>40900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>41000</v>
       </c>
       <c r="V54" s="3">
         <v>40900</v>
@@ -3610,10 +3861,16 @@
         <v>41000</v>
       </c>
       <c r="X54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="Y54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3895,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,64 +3923,66 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F57" s="3">
         <v>30700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>27600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>22700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>18100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>15500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>13800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>10000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>11600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>10500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>9500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -3730,268 +3991,292 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>197700</v>
+      </c>
+      <c r="F58" s="3">
         <v>100100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>84900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>116900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>129600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>82600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>109600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>150800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>149900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>113300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>99200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>128100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>147900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>109700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>98200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>102300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>0</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F59" s="3">
         <v>39800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>38900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>31200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>26500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>39700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>25900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>20700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>18000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>13900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>15800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>14000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>15400</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>315400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>266400</v>
+      </c>
+      <c r="F60" s="3">
         <v>170500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>151400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>170800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>174200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>137800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>149200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>181500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>174700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>138900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>121500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>157700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>172400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>135900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>121700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>127400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-      <c r="X60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F61" s="3">
         <v>14800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>8400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>10500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>15700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>15600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>17100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>16800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>17800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>19000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>17000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4004,62 +4289,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>153500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>157000</v>
+      </c>
+      <c r="F62" s="3">
         <v>142300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>130500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>121000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>120900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>100400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>101500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>99000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>80000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>82500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>82300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>80500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>79300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>80900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>75800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>75900</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4072,8 +4363,14 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4437,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4511,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4585,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>481400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>437000</v>
+      </c>
+      <c r="F66" s="3">
         <v>327600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>283600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>298200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>303500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>248700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>266400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>288300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>270300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>238600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>220600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>256100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>270700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>233500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>213800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>220400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
-      <c r="X66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4691,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4761,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4835,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4527,41 +4862,41 @@
         <v>55000</v>
       </c>
       <c r="I70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K70" s="3">
         <v>64200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>62500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>60900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>59300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>57700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>56200</v>
-      </c>
-      <c r="O70" s="3">
-        <v>55000</v>
-      </c>
-      <c r="P70" s="3">
-        <v>55000</v>
       </c>
       <c r="Q70" s="3">
         <v>55000</v>
       </c>
       <c r="R70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="S70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="T70" s="3">
         <v>55200</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4574,8 +4909,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4983,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>125100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>96800</v>
+      </c>
+      <c r="F72" s="3">
         <v>79900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>48900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>23600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>14800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
         <v>-800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +5131,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5205,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5279,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>216400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>206100</v>
+      </c>
+      <c r="F76" s="3">
         <v>179700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>141500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>115200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>85500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>94200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>84100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>77300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>75400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>76800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>79600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>78100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>76500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>77500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>78500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>75300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>28400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>40700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>40800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>40800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>41000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>41000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5427,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F81" s="3">
         <v>29800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>24100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,40 +5612,42 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F83" s="3">
         <v>3700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>3200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2600</v>
       </c>
       <c r="K83" s="3">
         <v>2700</v>
       </c>
       <c r="L83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M83" s="3">
         <v>2700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2600</v>
       </c>
       <c r="N83" s="3">
         <v>2700</v>
@@ -5259,20 +5656,20 @@
         <v>2600</v>
       </c>
       <c r="P83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R83" s="3">
         <v>2500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5285,8 +5682,14 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5756,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5830,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5904,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5978,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +6052,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="F89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>58800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>24800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-30800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>58300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>67500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-27800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>30100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>28900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>7400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5700</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +6158,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5728,53 +6169,53 @@
         <v>-7900</v>
       </c>
       <c r="E91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5787,8 +6228,14 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6302,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6376,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-66500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-23300</v>
       </c>
       <c r="H94" s="3">
         <v>-6200</v>
       </c>
       <c r="I94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-11200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-78300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>11600</v>
-      </c>
-      <c r="T94" s="3">
-        <v>100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>100</v>
       </c>
       <c r="V94" s="3">
         <v>100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X94" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6482,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6056,14 +6523,14 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6085,8 +6552,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6626,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6700,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6774,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>118900</v>
+      </c>
+      <c r="F100" s="3">
         <v>26600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-26900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>36000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-32400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-44800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>34700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-28300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-21300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>23400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>90900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-11400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,62 +6922,68 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-37300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>24900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>16000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-18100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>19600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>18800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>11800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-10800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>18300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6488,9 +6991,15 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,171 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>373600</v>
+      </c>
+      <c r="E8" s="3">
         <v>376200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>322500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>318700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>322800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>271000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>196600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>215700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>214000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>144900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>158400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>168500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>173100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>142400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>162100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>177800</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,65 +845,68 @@
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>274300</v>
+      </c>
+      <c r="E9" s="3">
         <v>277000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>238400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>228500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>236600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>206900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>152400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>166400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>170000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>149400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>127900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>133100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>99000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>112100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>126400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>138900</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
@@ -915,65 +922,68 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E10" s="3">
         <v>99200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>84100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>90200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>86200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>30500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>26900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>38900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -989,8 +999,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,8 +1030,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,8 +1105,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,49 +1182,52 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-5700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
-      </c>
-      <c r="P14" s="3">
-        <v>200</v>
       </c>
       <c r="Q14" s="3">
         <v>200</v>
@@ -1216,14 +1236,14 @@
         <v>200</v>
       </c>
       <c r="S14" s="3">
+        <v>200</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1239,8 +1259,11 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,47 +1274,47 @@
         <v>4100</v>
       </c>
       <c r="F15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G15" s="3">
         <v>3700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3200</v>
       </c>
       <c r="I15" s="3">
         <v>3200</v>
       </c>
       <c r="J15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2700</v>
       </c>
       <c r="N15" s="3">
         <v>2700</v>
       </c>
       <c r="O15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P15" s="3">
         <v>2600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2500</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1304,8 +1327,8 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1313,8 +1336,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,139 +1364,143 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>340600</v>
+      </c>
+      <c r="E17" s="3">
         <v>337500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>296300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>280600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>279300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>248100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>186000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>198200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>201300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>184100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>146100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>157600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>162100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>167000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>126100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>141500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>156900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>170900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E18" s="3">
         <v>38700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6900</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1486,8 +1516,11 @@
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,44 +1547,45 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1570,8 +1604,8 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
@@ -1588,65 +1622,68 @@
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E21" s="3">
         <v>44300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>40000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>19400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>7900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1662,65 +1699,68 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1900</v>
       </c>
       <c r="H22" s="3">
         <v>1900</v>
       </c>
       <c r="I22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,73 +1776,76 @@
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E23" s="3">
         <v>37300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>38300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
@@ -1810,64 +1853,67 @@
       <c r="Z23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E24" s="3">
         <v>9000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1200</v>
       </c>
       <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
+      <c r="U24" s="3">
+        <v>1200</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
@@ -1884,8 +1930,11 @@
       <c r="Z24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,73 +2007,76 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E26" s="3">
         <v>28300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
@@ -2032,73 +2084,76 @@
       <c r="Z26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E27" s="3">
         <v>27100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
@@ -2106,8 +2161,11 @@
       <c r="Z27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,8 +2315,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,44 +2469,47 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2458,8 +2528,8 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
@@ -2476,73 +2546,76 @@
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E33" s="3">
         <v>27100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>15700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
@@ -2550,8 +2623,11 @@
       <c r="Z33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,73 +2700,76 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E35" s="3">
         <v>27100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>15700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
@@ -2698,87 +2777,93 @@
       <c r="Z35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,65 +2919,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E41" s="3">
         <v>89600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>67000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>81700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>33100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2902,13 +2989,16 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2981,67 +3071,70 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E43" s="3">
         <v>51600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>31900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24800</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3049,71 +3142,74 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>321700</v>
+      </c>
+      <c r="E44" s="3">
         <v>284000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>242900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>140700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>87300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>112500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>116300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>71500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>153300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>160900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>126200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>118500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>143200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>167400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>127200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>115300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>120200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3129,37 +3225,40 @@
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>3000</v>
       </c>
       <c r="M45" s="3">
         <v>3000</v>
@@ -3168,25 +3267,25 @@
         <v>3000</v>
       </c>
       <c r="O45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2000</v>
-      </c>
-      <c r="U45" s="3">
-        <v>300</v>
       </c>
       <c r="V45" s="3">
         <v>300</v>
@@ -3203,64 +3302,67 @@
       <c r="Z45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>471900</v>
+      </c>
+      <c r="E46" s="3">
         <v>427800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>375600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>242800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>233900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>225400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>203900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>176800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>216100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>211700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>184100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>172300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>204500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>216700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>191500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>179300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>180100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
@@ -3275,10 +3377,13 @@
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3327,17 +3432,17 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>29200</v>
-      </c>
-      <c r="V47" s="3">
-        <v>40600</v>
       </c>
       <c r="W47" s="3">
         <v>40600</v>
@@ -3346,70 +3451,73 @@
         <v>40600</v>
       </c>
       <c r="Y47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="Z47" s="3">
         <v>40700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>158400</v>
+      </c>
+      <c r="E48" s="3">
         <v>157100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>152800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>147700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>126400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>121900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>121800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>111600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>107900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>105000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>86900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>81300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>80300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>79600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>78000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>77000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>72000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>73400</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3425,65 +3533,68 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E49" s="3">
         <v>166400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>168100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>171300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>119300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>120600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>117900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>109200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>110100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>106800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>107800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>108900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>105000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>106000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>107000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>97200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>95800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>97100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3499,8 +3610,11 @@
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,22 +3764,25 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
@@ -3671,13 +3791,13 @@
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -3692,20 +3812,20 @@
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3715,14 +3835,17 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>794700</v>
+      </c>
+      <c r="E54" s="3">
         <v>752800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>698100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>562300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>480100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>468400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>444000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>397900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>414700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>428100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>406600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>374600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>357900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>390400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>402100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>365900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>347300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>350900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>40900</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>41000</v>
       </c>
       <c r="Z54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,147 +4055,151 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E57" s="3">
         <v>31600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E58" s="3">
         <v>235000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>197700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>84900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>116900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>129600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>82600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>109600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>150800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>149900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>113300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>99200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>128100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>147900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>109700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>98200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>102300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
@@ -4073,213 +4207,222 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E59" s="3">
         <v>48800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>39800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>14000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15400</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>350600</v>
+      </c>
+      <c r="E60" s="3">
         <v>315400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>266400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>170500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>151400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>174200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>137800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>149200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>181500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>174700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>138900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>121500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>157700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>172400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>135900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>121700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>127400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
-      <c r="Y60" s="3">
-        <v>0</v>
-      </c>
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E61" s="3">
         <v>12500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>10500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4295,65 +4438,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E62" s="3">
         <v>153500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>157000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>142300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>130500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>121000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>120900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>79300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>80900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>75800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>75900</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4369,8 +4515,11 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>509900</v>
+      </c>
+      <c r="E66" s="3">
         <v>481400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>437000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>327600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>283600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>298200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>303500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>248700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>266400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>288300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>270300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>238600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>220600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>256100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>270700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>233500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>213800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>220400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
       <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>100</v>
       </c>
-      <c r="Y66" s="3">
-        <v>0</v>
-      </c>
       <c r="Z66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4868,25 +5036,25 @@
         <v>55000</v>
       </c>
       <c r="K70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="L70" s="3">
         <v>64200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>62500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>60900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>59300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>57700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>56200</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>55000</v>
       </c>
       <c r="R70" s="3">
         <v>55000</v>
@@ -4895,11 +5063,11 @@
         <v>55000</v>
       </c>
       <c r="T70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="U70" s="3">
         <v>55200</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4915,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>156900</v>
+      </c>
+      <c r="E72" s="3">
         <v>125100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>96800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>79900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1700</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
       <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
         <v>-800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-400</v>
       </c>
       <c r="Z72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E76" s="3">
         <v>216400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>206100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>179700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>141500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>85500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>84100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>77300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>78100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>76500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>78500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>75300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40700</v>
-      </c>
-      <c r="W76" s="3">
-        <v>40800</v>
       </c>
       <c r="X76" s="3">
         <v>40800</v>
       </c>
       <c r="Y76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="Z76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,152 +5622,158 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E81" s="3">
         <v>27100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>15700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
@@ -5586,8 +5781,11 @@
       <c r="Z81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,8 +5812,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5626,53 +5825,53 @@
         <v>4100</v>
       </c>
       <c r="F83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G83" s="3">
         <v>3700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3200</v>
       </c>
       <c r="I83" s="3">
         <v>3200</v>
       </c>
       <c r="J83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>2700</v>
       </c>
       <c r="N83" s="3">
         <v>2700</v>
       </c>
       <c r="O83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5688,8 +5887,11 @@
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,70 +6272,73 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-83500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>58800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-30800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>58300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6130,10 +6347,13 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,65 +6380,66 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6234,8 +6455,11 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,67 +6609,70 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-78300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>11600</v>
-      </c>
-      <c r="V94" s="3">
-        <v>100</v>
       </c>
       <c r="W94" s="3">
         <v>100</v>
@@ -6451,13 +6681,16 @@
         <v>100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6717,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6529,11 +6763,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6558,8 +6792,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,71 +7023,74 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E100" s="3">
         <v>16800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>118900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>26600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>34700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>23400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>90900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-11400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -6852,10 +7098,13 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,65 +7177,68 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>18300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -6997,9 +7249,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,174 +665,178 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>333800</v>
+      </c>
+      <c r="E8" s="3">
         <v>373600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>376200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>322500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>318700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>322800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>271000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>196600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>215700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>190900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>158400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>168500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>173100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>142400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>162100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>177800</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,68 +852,71 @@
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>257900</v>
+      </c>
+      <c r="E9" s="3">
         <v>274300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>277000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>238400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>228500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>236600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>206900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>152400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>166400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>170000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>149400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>127900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>133100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>136100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>99000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>112100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>126400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>138900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
@@ -925,68 +932,71 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E10" s="3">
         <v>99300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>99200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>84100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>90200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>86200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>44200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>30500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>35400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>26900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>38900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1002,8 +1012,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1031,8 +1044,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1122,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,52 +1202,55 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>200</v>
       </c>
       <c r="R14" s="3">
         <v>200</v>
@@ -1239,14 +1259,14 @@
         <v>200</v>
       </c>
       <c r="T14" s="3">
+        <v>200</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1262,13 +1282,16 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E15" s="3">
         <v>4100</v>
@@ -1277,47 +1300,47 @@
         <v>4100</v>
       </c>
       <c r="G15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H15" s="3">
         <v>3700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3200</v>
       </c>
       <c r="J15" s="3">
         <v>3200</v>
       </c>
       <c r="K15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2700</v>
       </c>
       <c r="O15" s="3">
         <v>2700</v>
       </c>
       <c r="P15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1330,8 +1353,8 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1339,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,145 +1391,149 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>317900</v>
+      </c>
+      <c r="E17" s="3">
         <v>340600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>337500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>296300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>280600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>279300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>248100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>186000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>198200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>201300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>184100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>146100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>162100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>167000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>126100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>141500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>156900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>170900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E18" s="3">
         <v>33000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>26200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>43500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6900</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1519,8 +1549,11 @@
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1548,47 +1581,48 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>9600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1607,8 +1641,8 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
@@ -1625,68 +1659,71 @@
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E21" s="3">
         <v>46700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>44300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>40000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>19400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>7900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1702,68 +1739,71 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>3400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1900</v>
       </c>
       <c r="I22" s="3">
         <v>1900</v>
       </c>
       <c r="J22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1779,76 +1819,79 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E23" s="3">
         <v>39200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>22800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>38300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>-100</v>
@@ -1856,67 +1899,70 @@
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1200</v>
       </c>
       <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
+      <c r="V24" s="3">
+        <v>1200</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>4</v>
@@ -1933,8 +1979,11 @@
       <c r="AA24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2010,76 +2059,79 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>31800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>-100</v>
@@ -2087,76 +2139,79 @@
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>30600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
         <v>-100</v>
@@ -2164,8 +2219,11 @@
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2318,8 +2379,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,47 +2539,50 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2531,8 +2601,8 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -2549,76 +2619,79 @@
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>30600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
         <v>-100</v>
@@ -2626,8 +2699,11 @@
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,76 +2779,79 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>30600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
         <v>-100</v>
@@ -2780,90 +2859,96 @@
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,68 +3006,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100800</v>
+      </c>
+      <c r="E41" s="3">
         <v>105400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>67000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>63500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>81700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>33500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>33100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -2992,13 +3079,16 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3074,70 +3164,73 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E43" s="3">
         <v>40800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>51600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>27100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3145,74 +3238,77 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>319400</v>
+      </c>
+      <c r="E44" s="3">
         <v>321700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>284000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>242900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>140700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>87300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>112500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>116300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>71500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>153300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>160900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>126200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>118500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>143200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>167400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>127200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>115300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>120200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3228,40 +3324,43 @@
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3000</v>
       </c>
       <c r="N45" s="3">
         <v>3000</v>
@@ -3270,25 +3369,25 @@
         <v>3000</v>
       </c>
       <c r="P45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2000</v>
-      </c>
-      <c r="V45" s="3">
-        <v>300</v>
       </c>
       <c r="W45" s="3">
         <v>300</v>
@@ -3305,67 +3404,70 @@
       <c r="AA45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>454900</v>
+      </c>
+      <c r="E46" s="3">
         <v>471900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>427800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>375600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>242800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>233900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>225400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>203900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>176800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>196300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>216100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>211700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>184100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>172300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>204500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>216700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>191500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>179300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>180100</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
@@ -3380,10 +3482,13 @@
         <v>300</v>
       </c>
       <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3435,17 +3540,17 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>29200</v>
-      </c>
-      <c r="W47" s="3">
-        <v>40600</v>
       </c>
       <c r="X47" s="3">
         <v>40600</v>
@@ -3454,73 +3559,76 @@
         <v>40600</v>
       </c>
       <c r="Z47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="AA47" s="3">
         <v>40700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E48" s="3">
         <v>158400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>157100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>152800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>147700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>126400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>121900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>121800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>111600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>107900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>105000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>86900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>81300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>80300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>79600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>78000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>77000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>72000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>73400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3536,68 +3644,71 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E49" s="3">
         <v>162300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>166400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>168100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>171300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>119300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>120600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>117900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>109200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>110100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>106800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>107800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>108900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>105000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>106000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>107000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>97200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>95800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>97100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3613,8 +3724,11 @@
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,25 +3884,28 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -3794,13 +3914,13 @@
         <v>500</v>
       </c>
       <c r="K52" s="3">
+        <v>500</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -3815,20 +3935,20 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>200</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3838,14 +3958,17 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4044,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>797100</v>
+      </c>
+      <c r="E54" s="3">
         <v>794700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>752800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>698100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>562300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>480100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>468400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>444000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>397900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>414700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>428100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>406600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>374600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>357900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>390400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>402100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>365900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>347300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>350900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>29500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40900</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>41000</v>
       </c>
       <c r="AA54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,153 +4186,157 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E57" s="3">
         <v>23900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>9500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>294200</v>
+      </c>
+      <c r="E58" s="3">
         <v>286000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>235000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>197700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>84900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>116900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>129600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>109600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>150800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>149900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>113300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>99200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>128100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>147900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>109700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>98200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>102300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
+      <c r="Y58" s="3">
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
@@ -4210,222 +4344,231 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E59" s="3">
         <v>40800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>48800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>38900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>20700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>14000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15400</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>348800</v>
+      </c>
+      <c r="E60" s="3">
         <v>350600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>315400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>266400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>170500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>151400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>170800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>174200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>137800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>149200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>181500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>174700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>138900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>121500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>157700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>172400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>135900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>121700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>127400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
-      </c>
-      <c r="W60" s="3">
-        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E61" s="3">
         <v>11700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4441,68 +4584,71 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150200</v>
+      </c>
+      <c r="E62" s="3">
         <v>147600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>153500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>157000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>142300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>130500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>121000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>120900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>99000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>80500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>79300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>80900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>75800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>75900</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4518,8 +4664,11 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4672,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4904,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E66" s="3">
         <v>509900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>481400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>437000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>327600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>283600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>298200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>303500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>248700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>266400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>288300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>270300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>238600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>220600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>256100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>270700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>233500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>213800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>220400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
       </c>
       <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
         <v>100</v>
       </c>
-      <c r="Z66" s="3">
-        <v>0</v>
-      </c>
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5039,25 +5207,25 @@
         <v>55000</v>
       </c>
       <c r="L70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="M70" s="3">
         <v>64200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>62500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>60900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>59300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>57700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>56200</v>
-      </c>
-      <c r="R70" s="3">
-        <v>55000</v>
       </c>
       <c r="S70" s="3">
         <v>55000</v>
@@ -5066,11 +5234,11 @@
         <v>55000</v>
       </c>
       <c r="U70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="V70" s="3">
         <v>55200</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5086,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5334,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>164600</v>
+      </c>
+      <c r="E72" s="3">
         <v>156900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>125100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>96800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>79900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>48900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1700</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
       <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
         <v>-800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-400</v>
       </c>
       <c r="AA72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5654,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E76" s="3">
         <v>229800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>216400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>206100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>179700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>141500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>85500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>84100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>75400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>78100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>78500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>75300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40700</v>
-      </c>
-      <c r="X76" s="3">
-        <v>40800</v>
       </c>
       <c r="Y76" s="3">
         <v>40800</v>
       </c>
       <c r="Z76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="AA76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,158 +5814,164 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>30600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
         <v>-100</v>
@@ -5784,8 +5979,11 @@
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,13 +6011,14 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
         <v>4100</v>
@@ -5828,53 +6027,53 @@
         <v>4100</v>
       </c>
       <c r="G83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H83" s="3">
         <v>3700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3200</v>
       </c>
       <c r="J83" s="3">
         <v>3200</v>
       </c>
       <c r="K83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>2700</v>
       </c>
       <c r="O83" s="3">
         <v>2700</v>
       </c>
       <c r="P83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5890,8 +6089,11 @@
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,73 +6489,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-83500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>58800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>58300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-27800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -6350,10 +6567,13 @@
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,68 +6601,69 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6458,8 +6679,11 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,70 +6839,73 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-78300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>11600</v>
-      </c>
-      <c r="W94" s="3">
-        <v>100</v>
       </c>
       <c r="X94" s="3">
         <v>100</v>
@@ -6684,13 +6914,16 @@
         <v>100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6766,11 +7000,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6795,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,74 +7269,77 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>34900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>118900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-26900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>36000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>34700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-21300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>23400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>90900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-11400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7101,10 +7347,13 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7180,68 +7429,71 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>15800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>11800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>18300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7252,9 +7504,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,184 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>243500</v>
+      </c>
+      <c r="E8" s="3">
         <v>333800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>373600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>376200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>322500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>318700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>322800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>271000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>196600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>215700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>214000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>190900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>144900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>158400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>168500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>173100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>125900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>142400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>162100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>177800</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
@@ -855,71 +858,74 @@
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>189100</v>
+      </c>
+      <c r="E9" s="3">
         <v>257900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>274300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>277000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>238400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>228500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>236600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>206900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>152400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>166400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>170000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>149400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>127900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>133100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>136100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>99000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>112100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>126400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>138900</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
@@ -935,71 +941,74 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E10" s="3">
         <v>75900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>99300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>99200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>84100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>90200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>86200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>64100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>30500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>35400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>26900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>30300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>35700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>38900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,8 +1057,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,8 +1138,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,55 +1221,58 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>200</v>
       </c>
       <c r="S14" s="3">
         <v>200</v>
@@ -1262,14 +1281,14 @@
         <v>200</v>
       </c>
       <c r="U14" s="3">
+        <v>200</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1285,16 +1304,19 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E15" s="3">
         <v>4200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4100</v>
       </c>
       <c r="F15" s="3">
         <v>4100</v>
@@ -1303,47 +1325,47 @@
         <v>4100</v>
       </c>
       <c r="H15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3200</v>
       </c>
       <c r="K15" s="3">
         <v>3200</v>
       </c>
       <c r="L15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2700</v>
       </c>
       <c r="P15" s="3">
         <v>2700</v>
       </c>
       <c r="Q15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R15" s="3">
         <v>2600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1356,8 +1378,8 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1365,8 +1387,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,151 +1417,155 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>241200</v>
+      </c>
+      <c r="E17" s="3">
         <v>317900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>340600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>337500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>296300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>280600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>279300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>248100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>186000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>198200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>201300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>184100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>146100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>157600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>162100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>167000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>126100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>141500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>156900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>170900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>100</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>15900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6900</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1552,8 +1581,11 @@
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,50 +1614,51 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1644,8 +1677,8 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
@@ -1662,71 +1695,74 @@
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E21" s="3">
         <v>19500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>44300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>40000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>19400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>8500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1742,71 +1778,74 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1900</v>
       </c>
       <c r="J22" s="3">
         <v>1900</v>
       </c>
       <c r="K22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2700</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,79 +1861,82 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>10700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>39200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>22800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>38300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
@@ -1902,70 +1944,73 @@
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>1200</v>
       </c>
       <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
+      <c r="W24" s="3">
+        <v>1200</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>4</v>
@@ -1982,8 +2027,11 @@
       <c r="AB24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,79 +2110,82 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>31800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
@@ -2142,79 +2193,82 @@
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>15700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
@@ -2222,8 +2276,11 @@
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2442,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,50 +2608,53 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2604,8 +2673,8 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
@@ -2622,79 +2691,82 @@
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>15700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
@@ -2702,8 +2774,11 @@
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,79 +2857,82 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>15700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
@@ -2862,93 +2940,99 @@
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,71 +3092,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E41" s="3">
         <v>100800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>79500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>81700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>33500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>26600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>33100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -3082,13 +3168,16 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3167,73 +3256,76 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E43" s="3">
         <v>30900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>40800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>51600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>31900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>27100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>24800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3241,77 +3333,80 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>378900</v>
+      </c>
+      <c r="E44" s="3">
         <v>319400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>321700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>284000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>242900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>140700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>87300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>112500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>116300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>71500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>153300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>160900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>126200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>118500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>143200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>167400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>127200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>115300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>120200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3327,43 +3422,46 @@
       <c r="AB44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3000</v>
       </c>
       <c r="O45" s="3">
         <v>3000</v>
@@ -3372,25 +3470,25 @@
         <v>3000</v>
       </c>
       <c r="Q45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R45" s="3">
         <v>3300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2000</v>
-      </c>
-      <c r="W45" s="3">
-        <v>300</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
@@ -3407,70 +3505,73 @@
       <c r="AB45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>476800</v>
+      </c>
+      <c r="E46" s="3">
         <v>454900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>471900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>427800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>375600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>242800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>233900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>225400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>203900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>176800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>216100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>211700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>184100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>172300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>204500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>216700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>191500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>179300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>180100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
@@ -3485,10 +3586,13 @@
         <v>300</v>
       </c>
       <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3543,17 +3647,17 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3">
         <v>29200</v>
-      </c>
-      <c r="X47" s="3">
-        <v>40600</v>
       </c>
       <c r="Y47" s="3">
         <v>40600</v>
@@ -3562,76 +3666,79 @@
         <v>40600</v>
       </c>
       <c r="AA47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="AB47" s="3">
         <v>40700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E48" s="3">
         <v>173000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>158400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>157100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>152800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>147700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>126400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>121900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>111600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>107900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>105000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>86900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>81300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>80300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>79600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>78000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>77000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>72000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>73400</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3647,71 +3754,74 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>165100</v>
+      </c>
+      <c r="E49" s="3">
         <v>167000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>162300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>166400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>168100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>171300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>119300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>120600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>117900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>109200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>110100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>106800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>107800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>108900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>105000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>106000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>107000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>97200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>95800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>97100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3727,8 +3837,11 @@
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,28 +4003,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -3917,13 +4036,13 @@
         <v>500</v>
       </c>
       <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3938,20 +4057,20 @@
         <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
         <v>400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>300</v>
       </c>
       <c r="U52" s="3">
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
         <v>200</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3961,14 +4080,17 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>830700</v>
+      </c>
+      <c r="E54" s="3">
         <v>797100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>794700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>752800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>698100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>562300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>480100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>468400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>444000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>397900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>414700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>428100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>406600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>374600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>357900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>390400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>402100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>365900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>347300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>350900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>40900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40900</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>41000</v>
       </c>
       <c r="AB54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,159 +4316,163 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
         <v>23400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>352300</v>
+      </c>
+      <c r="E58" s="3">
         <v>294200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>286000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>235000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>197700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>84900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>116900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>129600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>109600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>150800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>149900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>113300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>99200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>128100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>147900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>109700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>98200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>102300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Z58" s="3">
+        <v>0</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
@@ -4347,231 +4480,240 @@
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E59" s="3">
         <v>31200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>39700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>20700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>14000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15400</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>399600</v>
+      </c>
+      <c r="E60" s="3">
         <v>348800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>350600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>315400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>266400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>170500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>174200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>137800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>149200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>181500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>174700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>138900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>121500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>157700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>172400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>135900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>121700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>127400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
       </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
       <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
-      <c r="AA60" s="3">
-        <v>0</v>
-      </c>
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E61" s="3">
         <v>10900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4587,71 +4729,74 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E62" s="3">
         <v>150200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>147600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>153500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>157000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>142300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>130500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>121000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>101500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>99000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>80500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>79300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>80900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>75800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>75900</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4667,8 +4812,11 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>538700</v>
+      </c>
+      <c r="E66" s="3">
         <v>510000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>509900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>481400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>437000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>327600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>283600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>298200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>303500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>248700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>266400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>288300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>270300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>238600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>220600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>256100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>270700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>233500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>213800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>220400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
-      </c>
-      <c r="X66" s="3">
-        <v>200</v>
       </c>
       <c r="Y66" s="3">
         <v>200</v>
       </c>
       <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>100</v>
       </c>
-      <c r="AA66" s="3">
-        <v>0</v>
-      </c>
       <c r="AB66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5210,25 +5377,25 @@
         <v>55000</v>
       </c>
       <c r="M70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="N70" s="3">
         <v>64200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>62500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>60900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>59300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>57700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>56200</v>
-      </c>
-      <c r="S70" s="3">
-        <v>55000</v>
       </c>
       <c r="T70" s="3">
         <v>55000</v>
@@ -5237,11 +5404,11 @@
         <v>55000</v>
       </c>
       <c r="V70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="W70" s="3">
         <v>55200</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5257,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>163200</v>
+      </c>
+      <c r="E72" s="3">
         <v>164600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>156900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>125100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>96800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>79900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>48900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1700</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
       <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
         <v>-800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-400</v>
       </c>
       <c r="AB72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E76" s="3">
         <v>232100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>229800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>216400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>206100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>179700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>141500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>115200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>85500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>84100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>75400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>76800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>76500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>78500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>75300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>40700</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>40800</v>
       </c>
       <c r="Z76" s="3">
         <v>40800</v>
       </c>
       <c r="AA76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="AB76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,164 +6005,170 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>15700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
@@ -5982,8 +6176,11 @@
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,16 +6209,17 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E83" s="3">
         <v>4200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4100</v>
       </c>
       <c r="F83" s="3">
         <v>4100</v>
@@ -6030,53 +6228,53 @@
         <v>4100</v>
       </c>
       <c r="H83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>3200</v>
       </c>
       <c r="L83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>2700</v>
       </c>
       <c r="P83" s="3">
         <v>2700</v>
       </c>
       <c r="Q83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6092,8 +6290,11 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,76 +6705,79 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="E89" s="3">
         <v>24200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-83500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>58800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>58300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>67500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-27800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-23000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-100</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
@@ -6570,10 +6786,13 @@
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,71 +6821,72 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6682,8 +6902,11 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,73 +7068,76 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-66500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-78300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>11600</v>
-      </c>
-      <c r="X94" s="3">
-        <v>100</v>
       </c>
       <c r="Y94" s="3">
         <v>100</v>
@@ -6917,13 +7146,16 @@
         <v>100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7003,11 +7236,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7032,8 +7265,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,77 +7514,80 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>118900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>26600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-32400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-44800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>34700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-28300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-21300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>23400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>90900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-11400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
@@ -7350,10 +7595,13 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,71 +7680,74 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>31100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>18300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7507,9 +7758,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,191 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E8" s="3">
         <v>243500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>333800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>373600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>376200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>322500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>318700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>322800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>271000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>196600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>215700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>214000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>144900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>158400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>168500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>173100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>125900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>142400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>162100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>177800</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
@@ -861,74 +865,77 @@
       <c r="AC8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>231800</v>
+      </c>
+      <c r="E9" s="3">
         <v>189100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>257900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>274300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>277000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>238400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>228500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>236600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>206900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>152400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>166400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>170000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>149400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>115700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>127900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>133100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>99000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>112100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>126400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>138900</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
@@ -944,74 +951,77 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E10" s="3">
         <v>54400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>99300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>99200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>84100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>90200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>86200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>41500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>30500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>35400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>26900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>30300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>35700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>38900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1027,8 +1037,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1141,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,58 +1241,61 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
-      </c>
-      <c r="S14" s="3">
-        <v>200</v>
       </c>
       <c r="T14" s="3">
         <v>200</v>
@@ -1284,14 +1304,14 @@
         <v>200</v>
       </c>
       <c r="V14" s="3">
+        <v>200</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1307,8 +1327,11 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1316,10 +1339,10 @@
         <v>4400</v>
       </c>
       <c r="E15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F15" s="3">
         <v>4200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4100</v>
       </c>
       <c r="G15" s="3">
         <v>4100</v>
@@ -1328,47 +1351,47 @@
         <v>4100</v>
       </c>
       <c r="I15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3300</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3200</v>
       </c>
       <c r="L15" s="3">
         <v>3200</v>
       </c>
       <c r="M15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2700</v>
       </c>
       <c r="Q15" s="3">
         <v>2700</v>
       </c>
       <c r="R15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S15" s="3">
         <v>2600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1381,8 +1404,8 @@
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -1390,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,157 +1444,161 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E17" s="3">
         <v>241200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>317900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>340600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>337500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>296300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>280600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>279300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>248100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>186000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>198200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>201300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>184100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>146100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>157600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>162100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>167000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>126100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>141500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>156900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>170900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>100</v>
       </c>
       <c r="AC17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>22900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6900</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1614,11 @@
       <c r="AC18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1615,53 +1648,54 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1680,8 +1714,8 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
@@ -1698,74 +1732,77 @@
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E21" s="3">
         <v>13200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>46700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>40000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>19400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>8500</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1781,74 +1818,77 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E22" s="3">
         <v>10400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1900</v>
       </c>
       <c r="K22" s="3">
         <v>1900</v>
       </c>
       <c r="L22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2700</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1864,82 +1904,85 @@
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>39200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>22800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>38300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
@@ -1947,73 +1990,76 @@
       <c r="AC23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>1200</v>
       </c>
       <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
+      <c r="X24" s="3">
+        <v>1200</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>4</v>
@@ -2030,8 +2076,11 @@
       <c r="AC24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2113,82 +2162,85 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>31800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
@@ -2196,82 +2248,85 @@
       <c r="AC26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>30600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
@@ -2279,8 +2334,11 @@
       <c r="AC27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2445,8 +2506,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,53 +2678,56 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2676,8 +2746,8 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
@@ -2694,82 +2764,85 @@
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>30600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>15700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
@@ -2777,8 +2850,11 @@
       <c r="AC33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,82 +2936,85 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>30600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>15700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
@@ -2943,96 +3022,102 @@
       <c r="AC35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,74 +3179,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E41" s="3">
         <v>61700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>89600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>79500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>81700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>43300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>33100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3171,13 +3258,16 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3259,76 +3349,79 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E43" s="3">
         <v>33000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>51600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>31900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>29900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>27100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>24800</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3336,80 +3429,83 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>419100</v>
+      </c>
+      <c r="E44" s="3">
         <v>378900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>319400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>321700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>284000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>242900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>140700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>87300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>112500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>116300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>71500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>100300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>153300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>160900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>126200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>118500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>143200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>167400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>127200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>115300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>120200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3425,46 +3521,49 @@
       <c r="AC44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>3000</v>
       </c>
       <c r="P45" s="3">
         <v>3000</v>
@@ -3473,25 +3572,25 @@
         <v>3000</v>
       </c>
       <c r="R45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S45" s="3">
         <v>3300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2000</v>
-      </c>
-      <c r="X45" s="3">
-        <v>300</v>
       </c>
       <c r="Y45" s="3">
         <v>300</v>
@@ -3508,73 +3607,76 @@
       <c r="AC45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>502600</v>
+      </c>
+      <c r="E46" s="3">
         <v>476800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>454900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>471900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>427800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>375600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>242800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>233900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>225400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>203900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>176800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>216100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>211700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>184100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>172300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>204500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>216700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>191500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>179300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>180100</v>
-      </c>
-      <c r="X46" s="3">
-        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
@@ -3589,10 +3691,13 @@
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3650,17 +3755,17 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>29200</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>40600</v>
       </c>
       <c r="Z47" s="3">
         <v>40600</v>
@@ -3669,79 +3774,82 @@
         <v>40600</v>
       </c>
       <c r="AB47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="AC47" s="3">
         <v>40700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>203600</v>
+      </c>
+      <c r="E48" s="3">
         <v>186000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>173000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>158400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>157100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>152800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>147700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>126400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>121900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>121800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>111600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>107900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>105000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>81300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>80300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>79600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>78000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>77000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>72000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>73400</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3757,74 +3865,77 @@
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E49" s="3">
         <v>165100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>167000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>162300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>166400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>168100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>171300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>119300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>120600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>117900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>109200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>110100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>106800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>107800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>108900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>105000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>106000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>107000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>97200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>95800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>97100</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3840,8 +3951,11 @@
       <c r="AC49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,31 +4123,34 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
@@ -4039,13 +4159,13 @@
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -4060,20 +4180,20 @@
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>300</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
       </c>
       <c r="W52" s="3">
+        <v>300</v>
+      </c>
+      <c r="X52" s="3">
         <v>200</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4083,14 +4203,17 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>878100</v>
+      </c>
+      <c r="E54" s="3">
         <v>830700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>797100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>794700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>752800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>698100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>562300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>480100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>468400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>444000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>397900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>414700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>428100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>406600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>374600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>357900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>390400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>402100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>365900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>347300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>350900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>40900</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>41000</v>
       </c>
       <c r="AC54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,165 +4447,169 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>10600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>9500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E58" s="3">
         <v>352300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>294200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>286000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>235000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>197700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>84900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>116900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>129600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>82600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>109600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>150800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>149900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>113300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>99200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>128100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>147900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>109700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>98200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>102300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
+      <c r="AA58" s="3">
+        <v>0</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
@@ -4483,240 +4617,249 @@
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E59" s="3">
         <v>36400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>40800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>20700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>14000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15400</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
       <c r="AB59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>396900</v>
+      </c>
+      <c r="E60" s="3">
         <v>399600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>348800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>350600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>315400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>266400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>170500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>151400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>174200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>137800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>149200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>181500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>174700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>138900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>121500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>157700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>172400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>135900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>121700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>127400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>200</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
       </c>
       <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
-      <c r="AB60" s="3">
-        <v>0</v>
-      </c>
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>10100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4732,74 +4875,77 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>157800</v>
+      </c>
+      <c r="E62" s="3">
         <v>129000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>147600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>153500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>157000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>142300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>130500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>121000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>120900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>101500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>99000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>80500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>79300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>80900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>75800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>75900</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4815,8 +4961,11 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>555100</v>
+      </c>
+      <c r="E66" s="3">
         <v>538700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>510000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>509900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>481400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>437000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>327600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>283600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>298200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>303500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>248700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>266400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>288300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>270300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>238600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>220600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>256100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>270700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>233500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>213800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>220400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>200</v>
       </c>
       <c r="Z66" s="3">
         <v>200</v>
       </c>
       <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB66" s="3">
         <v>100</v>
       </c>
-      <c r="AB66" s="3">
-        <v>0</v>
-      </c>
       <c r="AC66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5380,25 +5548,25 @@
         <v>55000</v>
       </c>
       <c r="N70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="O70" s="3">
         <v>64200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>62500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>60900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>59300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>57700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>56200</v>
-      </c>
-      <c r="T70" s="3">
-        <v>55000</v>
       </c>
       <c r="U70" s="3">
         <v>55000</v>
@@ -5407,11 +5575,11 @@
         <v>55000</v>
       </c>
       <c r="W70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="X70" s="3">
         <v>55200</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>162900</v>
+      </c>
+      <c r="E72" s="3">
         <v>163200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>164600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>156900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>125100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>96800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>79900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>48900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>23600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1700</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
-      </c>
       <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
         <v>-800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>-400</v>
       </c>
       <c r="AC72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>268100</v>
+      </c>
+      <c r="E76" s="3">
         <v>237000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>232100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>229800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>216400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>206100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>179700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>141500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>115200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>85500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>84100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>75400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>76800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>78100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>76500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>78500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>75300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>40700</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>40800</v>
       </c>
       <c r="AA76" s="3">
         <v>40800</v>
       </c>
       <c r="AB76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="AC76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,170 +6197,176 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>30600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>15700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
@@ -6179,8 +6374,11 @@
       <c r="AC81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,8 +6408,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6219,10 +6418,10 @@
         <v>4400</v>
       </c>
       <c r="E83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F83" s="3">
         <v>4200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4100</v>
       </c>
       <c r="G83" s="3">
         <v>4100</v>
@@ -6231,53 +6430,53 @@
         <v>4100</v>
       </c>
       <c r="I83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3200</v>
       </c>
       <c r="L83" s="3">
         <v>3200</v>
       </c>
       <c r="M83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>2700</v>
       </c>
       <c r="Q83" s="3">
         <v>2700</v>
       </c>
       <c r="R83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S83" s="3">
         <v>2600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6293,8 +6492,11 @@
       <c r="AC83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,79 +6922,82 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-64500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-83500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>58800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>58300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>67500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-23000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>7400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
@@ -6789,10 +7006,13 @@
         <v>-100</v>
       </c>
       <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,74 +7042,75 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6905,8 +7126,11 @@
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,76 +7298,79 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-66500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-78300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>11600</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>100</v>
       </c>
       <c r="Z94" s="3">
         <v>100</v>
@@ -7149,13 +7379,16 @@
         <v>100</v>
       </c>
       <c r="AB94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7239,11 +7473,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7268,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,80 +7760,83 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E100" s="3">
         <v>41700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>118900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>26600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-44800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>34700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-21300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>23400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>90900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-11400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -7598,10 +7844,13 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7683,74 +7932,77 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-39100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>31100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-37300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>11800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>18300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7761,9 +8013,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,198 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>308400</v>
+      </c>
+      <c r="E8" s="3">
         <v>295700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>243500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>333800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>373600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>376200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>322500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>318700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>322800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>271000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>196600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>215700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>214000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>190900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>144900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>158400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>168500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>173100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>125900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>142400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>162100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>177800</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,77 +872,80 @@
       <c r="AD8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E9" s="3">
         <v>231800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>189100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>257900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>274300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>277000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>238400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>228500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>236600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>206900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>152400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>166400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>170000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>149400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>115700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>127900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>133100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>136100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>99000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>112100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>126400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>138900</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
@@ -954,77 +961,80 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E10" s="3">
         <v>63900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>54400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>99300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>99200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>84100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>90200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>86200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>41500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>29200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>30500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>35400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>26900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>30300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>35700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>38900</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1040,8 +1050,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,8 +1172,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,61 +1261,64 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
-      </c>
-      <c r="T14" s="3">
-        <v>200</v>
       </c>
       <c r="U14" s="3">
         <v>200</v>
@@ -1307,14 +1327,14 @@
         <v>200</v>
       </c>
       <c r="W14" s="3">
+        <v>200</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3200</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1330,22 +1350,25 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E15" s="3">
         <v>4400</v>
       </c>
       <c r="F15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G15" s="3">
         <v>4200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4100</v>
       </c>
       <c r="H15" s="3">
         <v>4100</v>
@@ -1354,47 +1377,47 @@
         <v>4100</v>
       </c>
       <c r="J15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3200</v>
       </c>
       <c r="M15" s="3">
         <v>3200</v>
       </c>
       <c r="N15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2700</v>
       </c>
       <c r="R15" s="3">
         <v>2700</v>
       </c>
       <c r="S15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T15" s="3">
         <v>2600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2500</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1407,8 +1430,8 @@
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,163 +1471,167 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E17" s="3">
         <v>289700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>241200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>317900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>340600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>337500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>296300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>280600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>279300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>248100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>186000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>198200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>201300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>184100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>146100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>157600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>162100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>167000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>126100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>141500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>156900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>170900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>100</v>
       </c>
       <c r="AD17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>6000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>22900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6900</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1617,8 +1647,11 @@
       <c r="AD18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,56 +1682,57 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1717,8 +1751,8 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
@@ -1735,77 +1769,80 @@
       <c r="AD20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E21" s="3">
         <v>11200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>46700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>44300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>44000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>40000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>7900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>8500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1821,77 +1858,80 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E22" s="3">
         <v>7200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1900</v>
       </c>
       <c r="L22" s="3">
         <v>1900</v>
       </c>
       <c r="M22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N22" s="3">
         <v>1800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2700</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1907,85 +1947,88 @@
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>39200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>38300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="3">
         <v>-100</v>
@@ -1993,76 +2036,79 @@
       <c r="AD23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>1200</v>
       </c>
       <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
+      <c r="Y24" s="3">
+        <v>1200</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>4</v>
@@ -2079,8 +2125,11 @@
       <c r="AD24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,85 +2214,88 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="3">
         <v>-100</v>
@@ -2251,85 +2303,88 @@
       <c r="AD26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>29800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="3">
         <v>-100</v>
@@ -2337,8 +2392,11 @@
       <c r="AD27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,56 +2748,59 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2749,8 +2819,8 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
@@ -2767,85 +2837,88 @@
       <c r="AD32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="3">
         <v>-100</v>
@@ -2853,8 +2926,11 @@
       <c r="AD33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,85 +3015,88 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="3">
         <v>-100</v>
@@ -3025,99 +3104,105 @@
       <c r="AD35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,77 +3266,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E41" s="3">
         <v>41000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>89600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>79500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>63500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>81700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>43300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>33500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>31100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>33100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
@@ -3261,13 +3348,16 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3352,79 +3442,82 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E43" s="3">
         <v>36500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>51600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>31900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>38200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>29900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>27100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>23900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>25800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>24800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3432,83 +3525,86 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>389800</v>
+      </c>
+      <c r="E44" s="3">
         <v>419100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>378900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>319400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>321700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>284000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>242900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>140700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>87300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>112500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>116300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>71500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>100300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>153300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>160900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>126200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>118500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>143200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>167400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>127200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>115300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>120200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3524,49 +3620,52 @@
       <c r="AD44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E45" s="3">
         <v>6000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>3000</v>
       </c>
       <c r="Q45" s="3">
         <v>3000</v>
@@ -3575,25 +3674,25 @@
         <v>3000</v>
       </c>
       <c r="S45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T45" s="3">
         <v>3300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2000</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>300</v>
       </c>
       <c r="Z45" s="3">
         <v>300</v>
@@ -3610,76 +3709,79 @@
       <c r="AD45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>454600</v>
+      </c>
+      <c r="E46" s="3">
         <v>502600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>476800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>454900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>471900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>427800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>375600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>242800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>233900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>225400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>203900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>176800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>196300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>216100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>211700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>184100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>172300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>204500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>216700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>191500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>179300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>180100</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>300</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
@@ -3694,10 +3796,13 @@
         <v>300</v>
       </c>
       <c r="AD46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3758,17 +3863,17 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3">
         <v>29200</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>40600</v>
       </c>
       <c r="AA47" s="3">
         <v>40600</v>
@@ -3777,82 +3882,85 @@
         <v>40600</v>
       </c>
       <c r="AC47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="AD47" s="3">
         <v>40700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E48" s="3">
         <v>203600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>186000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>173000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>158400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>157100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>152800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>147700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>121900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>121800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>111600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>107900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>105000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>81300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>80300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>79600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>78000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>77000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>72000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>73400</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3868,77 +3976,80 @@
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E49" s="3">
         <v>169000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>165100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>167000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>162300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>166400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>168100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>171300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>119300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>120600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>117900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>109200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>110100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>106800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>107800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>108900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>105000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>106000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>107000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>97200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>95800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>97100</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3954,8 +4065,11 @@
       <c r="AD49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,34 +4243,37 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
@@ -4162,13 +4282,13 @@
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>500</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -4183,20 +4303,20 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>400</v>
-      </c>
-      <c r="V52" s="3">
-        <v>300</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
       </c>
       <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
         <v>200</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4206,14 +4326,17 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC52" s="3">
-        <v>0</v>
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>857300</v>
+      </c>
+      <c r="E54" s="3">
         <v>878100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>830700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>797100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>794700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>752800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>698100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>562300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>480100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>468400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>444000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>397900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>414700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>428100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>406600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>374600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>357900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>390400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>402100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>365900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>347300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>350900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>29500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>40900</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>41000</v>
       </c>
       <c r="AD54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,171 +4578,175 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E57" s="3">
         <v>13500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>15500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>10400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>10600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>9500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
       <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>305500</v>
+      </c>
+      <c r="E58" s="3">
         <v>342700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>352300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>294200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>286000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>235000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>197700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>84900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>116900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>129600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>82600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>109600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>150800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>149900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>113300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>99200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>128100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>147900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>109700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>98200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>102300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
+      <c r="AB58" s="3">
+        <v>0</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
@@ -4620,180 +4754,189 @@
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E59" s="3">
         <v>40700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>40800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>20700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>14000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>15400</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
       </c>
       <c r="AC59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>359300</v>
+      </c>
+      <c r="E60" s="3">
         <v>396900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>399600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>348800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>350600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>315400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>266400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>170500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>151400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>170800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>174200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>137800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>149200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>181500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>174700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>138900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>121500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>157700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>172400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>135900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>121700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>127400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>200</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
       <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC60" s="3">
         <v>100</v>
       </c>
-      <c r="AC60" s="3">
-        <v>0</v>
-      </c>
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4801,68 +4944,68 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>10100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>13700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>14800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4878,77 +5021,80 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E62" s="3">
         <v>157800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>129000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>147600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>153500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>157000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>142300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>130500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>121000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>120900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>101500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>99000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>80000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>82500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>80500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>79300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>80900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>75800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>75900</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4964,8 +5110,11 @@
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>530800</v>
+      </c>
+      <c r="E66" s="3">
         <v>555100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>538700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>510000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>509900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>481400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>437000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>327600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>283600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>298200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>303500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>248700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>266400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>288300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>270300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>238600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>220600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>256100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>270700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>233500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>213800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>220400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>200</v>
       </c>
       <c r="AA66" s="3">
         <v>200</v>
       </c>
       <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC66" s="3">
         <v>100</v>
       </c>
-      <c r="AC66" s="3">
-        <v>0</v>
-      </c>
       <c r="AD66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5551,25 +5719,25 @@
         <v>55000</v>
       </c>
       <c r="O70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="P70" s="3">
         <v>64200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>62500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>60900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>59300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>57700</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>56200</v>
-      </c>
-      <c r="U70" s="3">
-        <v>55000</v>
       </c>
       <c r="V70" s="3">
         <v>55000</v>
@@ -5578,11 +5746,11 @@
         <v>55000</v>
       </c>
       <c r="X70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Y70" s="3">
         <v>55200</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E72" s="3">
         <v>162900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>163200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>164600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>156900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>125100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>96800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>79900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>48900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>23600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1700</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
       <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>-400</v>
       </c>
       <c r="AD72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>271600</v>
+      </c>
+      <c r="E76" s="3">
         <v>268100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>232100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>229800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>216400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>206100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>179700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>141500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>85500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>94200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>84100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>77300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>79600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>78100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>76500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>77500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>78500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>75300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>28400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>40700</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>40800</v>
       </c>
       <c r="AB76" s="3">
         <v>40800</v>
       </c>
       <c r="AC76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="AD76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,176 +6389,182 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="3">
         <v>-100</v>
@@ -6377,8 +6572,11 @@
       <c r="AD81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,22 +6607,23 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
         <v>4400</v>
       </c>
       <c r="F83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G83" s="3">
         <v>4200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4100</v>
       </c>
       <c r="H83" s="3">
         <v>4100</v>
@@ -6433,53 +6632,53 @@
         <v>4100</v>
       </c>
       <c r="J83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3200</v>
       </c>
       <c r="M83" s="3">
         <v>3200</v>
       </c>
       <c r="N83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2700</v>
       </c>
       <c r="R83" s="3">
         <v>2700</v>
       </c>
       <c r="S83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1600</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6495,8 +6694,11 @@
       <c r="AD83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,82 +7139,85 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-64500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-83500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>58800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>24800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>58300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>67500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-27800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-23000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>7400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
@@ -7009,10 +7226,13 @@
         <v>-100</v>
       </c>
       <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,77 +7263,78 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7129,8 +7350,11 @@
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,79 +7528,82 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-33600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-66500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-7200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-78300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>11600</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>100</v>
       </c>
       <c r="AA94" s="3">
         <v>100</v>
@@ -7382,13 +7612,16 @@
         <v>100</v>
       </c>
       <c r="AC94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7476,11 +7710,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,83 +8006,86 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E100" s="3">
         <v>41800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>41700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>118900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>26600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-26900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>34700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-21300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>23400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>90900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-11400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
@@ -7847,10 +8093,13 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7935,77 +8184,80 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-20600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-37300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>24900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>19600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>18300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -8016,9 +8268,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LAZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>LAZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,205 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>280700</v>
+      </c>
+      <c r="E8" s="3">
         <v>308400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>295700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>243500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>333800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>373600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>376200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>322500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>318700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>322800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>271000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>196600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>215700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>214000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>190900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>144900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>158400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>168500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>173100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>125900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>142400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>162100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>177800</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,80 +879,83 @@
       <c r="AE8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>226200</v>
+      </c>
+      <c r="E9" s="3">
         <v>240700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>231800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>189100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>257900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>274300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>277000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>238400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>228500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>236600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>206900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>152400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>166400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>170000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>149400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>115700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>127900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>133100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>136100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>99000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>112100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>126400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>138900</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
@@ -964,80 +971,83 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E10" s="3">
         <v>67700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>63900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>54400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>99300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>99200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>84100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>90200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>86200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>29200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>30500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>35400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>26900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>30300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>35700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>38900</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1053,8 +1063,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,8 +1099,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1175,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1281,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,53 +1295,53 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
-      </c>
-      <c r="U14" s="3">
-        <v>200</v>
       </c>
       <c r="V14" s="3">
         <v>200</v>
@@ -1330,14 +1350,14 @@
         <v>200</v>
       </c>
       <c r="X14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1353,25 +1373,28 @@
       <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="3">
         <v>4500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4400</v>
       </c>
       <c r="F15" s="3">
         <v>4400</v>
       </c>
       <c r="G15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H15" s="3">
         <v>4200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4100</v>
       </c>
       <c r="I15" s="3">
         <v>4100</v>
@@ -1380,47 +1403,47 @@
         <v>4100</v>
       </c>
       <c r="K15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3200</v>
       </c>
       <c r="N15" s="3">
         <v>3200</v>
       </c>
       <c r="O15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2600</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2700</v>
       </c>
       <c r="S15" s="3">
         <v>2700</v>
       </c>
       <c r="T15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U15" s="3">
         <v>2600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2500</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1433,8 +1456,8 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,169 +1498,173 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>279100</v>
+      </c>
+      <c r="E17" s="3">
         <v>295600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>289700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>241200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>317900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>340600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>337500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>296300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>280600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>279300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>248100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>186000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>198200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>201300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>184100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>146100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>157600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>162100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>167000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>126100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>141500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>156900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>170900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>100</v>
       </c>
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6900</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1650,8 +1680,11 @@
       <c r="AE18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,8 +1716,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1692,50 +1726,50 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3800</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1754,8 +1788,8 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
@@ -1772,80 +1806,83 @@
       <c r="AE20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E21" s="3">
         <v>17200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>19500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>46700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>44300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>44000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>40000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>8800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>7900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8500</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1861,80 +1898,83 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1900</v>
       </c>
       <c r="M22" s="3">
         <v>1900</v>
       </c>
       <c r="N22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2700</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1950,88 +1990,91 @@
       <c r="AE22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>39200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>37300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>34800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="3">
         <v>-100</v>
@@ -2039,79 +2082,82 @@
       <c r="AE23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1100</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1200</v>
       </c>
       <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
+      <c r="Z24" s="3">
+        <v>1200</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>4</v>
@@ -2128,8 +2174,11 @@
       <c r="AE24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,88 +2266,91 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
         <v>-100</v>
@@ -2306,88 +2358,91 @@
       <c r="AE26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>9900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="3">
         <v>-100</v>
@@ -2395,8 +2450,11 @@
       <c r="AE27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,8 +2818,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2760,50 +2830,50 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3800</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2822,8 +2892,8 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
@@ -2840,88 +2910,91 @@
       <c r="AE32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>9900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="3">
         <v>-100</v>
@@ -2929,8 +3002,11 @@
       <c r="AE33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,88 +3094,91 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>9900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="3">
         <v>-100</v>
@@ -3107,102 +3186,108 @@
       <c r="AE35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,80 +3353,81 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E41" s="3">
         <v>24200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>105400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>89600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>63500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>81700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>33500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>30200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>31100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>35600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>33100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
@@ -3351,13 +3438,16 @@
         <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3445,82 +3535,85 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E43" s="3">
         <v>35100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>31900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>31000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>29900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>27100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>23900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>25800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>24800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3528,86 +3621,89 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>385300</v>
+      </c>
+      <c r="E44" s="3">
         <v>389800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>419100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>378900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>319400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>321700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>284000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>242900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>140700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>87300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>112500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>116300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>71500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>100300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>153300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>160900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>126200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>118500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>143200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>167400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>127200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>115300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>120200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3623,52 +3719,55 @@
       <c r="AE44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>3000</v>
       </c>
       <c r="R45" s="3">
         <v>3000</v>
@@ -3677,25 +3776,25 @@
         <v>3000</v>
       </c>
       <c r="T45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U45" s="3">
         <v>3300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>300</v>
       </c>
       <c r="AA45" s="3">
         <v>300</v>
@@ -3712,79 +3811,82 @@
       <c r="AE45" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>452500</v>
+      </c>
+      <c r="E46" s="3">
         <v>454600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>502600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>476800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>454900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>471900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>427800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>375600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>242800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>233900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>225400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>203900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>176800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>196300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>216100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>211700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>184100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>172300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>204500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>216700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>191500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>179300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>180100</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>300</v>
       </c>
       <c r="AA46" s="3">
         <v>300</v>
@@ -3799,10 +3901,13 @@
         <v>300</v>
       </c>
       <c r="AE46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3866,17 +3971,17 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
         <v>29200</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>40600</v>
       </c>
       <c r="AB47" s="3">
         <v>40600</v>
@@ -3885,85 +3990,88 @@
         <v>40600</v>
       </c>
       <c r="AD47" s="3">
+        <v>40600</v>
+      </c>
+      <c r="AE47" s="3">
         <v>40700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>275600</v>
+      </c>
+      <c r="E48" s="3">
         <v>232400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>203600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>186000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>173000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>158400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>157100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>152800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>147700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>126400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>121900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>121800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>111600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>107900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>105000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>81300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>80300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>79600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>78000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>77000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>72000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>73400</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3979,80 +4087,83 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>184600</v>
+      </c>
+      <c r="E49" s="3">
         <v>167100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>169000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>165100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>167000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>162300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>166400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>168100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>171300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>119300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>120600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>117900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>109200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>110100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>106800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>107800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>108900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>105000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>106000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>107000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>97200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>95800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>97100</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
@@ -4068,8 +4179,11 @@
       <c r="AE49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,37 +4363,40 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
@@ -4285,13 +4405,13 @@
         <v>500</v>
       </c>
       <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -4306,20 +4426,20 @@
         <v>300</v>
       </c>
       <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
         <v>400</v>
-      </c>
-      <c r="W52" s="3">
-        <v>300</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
       </c>
       <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z52" s="3">
         <v>200</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4329,14 +4449,17 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD52" s="3">
-        <v>0</v>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>915500</v>
+      </c>
+      <c r="E54" s="3">
         <v>857300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>878100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>830700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>797100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>794700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>752800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>698100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>562300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>480100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>468400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>444000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>397900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>414700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>428100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>406600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>374600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>357900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>390400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>402100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>365900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>347300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>350900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>29500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>40900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>40900</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>41000</v>
       </c>
       <c r="AE54" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,177 +4709,181 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E57" s="3">
         <v>14600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>10400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>10600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>10500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>9500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>9700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
       <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
         <v>100</v>
       </c>
-      <c r="AD57" s="3">
-        <v>0</v>
-      </c>
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E58" s="3">
         <v>305500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>342700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>352300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>294200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>286000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>235000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>197700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>84900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>116900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>129600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>82600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>109600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>150800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>149900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>113300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>99200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>128100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>147900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>109700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>98200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>102300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
+      <c r="AC58" s="3">
+        <v>0</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>4</v>
@@ -4757,258 +4891,267 @@
       <c r="AE58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E59" s="3">
         <v>39200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>40300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>38900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>25900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>20700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>15800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>14000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>15400</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
       <c r="AB59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="3">
         <v>100</v>
       </c>
       <c r="AD59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>390300</v>
+      </c>
+      <c r="E60" s="3">
         <v>359300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>396900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>399600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>348800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>350600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>315400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>266400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>170500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>170800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>174200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>137800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>149200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>181500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>174700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>138900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>121500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>157700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>172400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>135900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>121700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>127400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>200</v>
       </c>
       <c r="AB60" s="3">
         <v>200</v>
       </c>
       <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD60" s="3">
         <v>100</v>
       </c>
-      <c r="AD60" s="3">
-        <v>0</v>
-      </c>
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>28500</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>10100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>10900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>16800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>16300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -5024,80 +5167,83 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>175900</v>
+      </c>
+      <c r="E62" s="3">
         <v>171200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>157800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>129000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>150200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>147600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>153500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>157000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>142300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>130500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>121000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>101500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>99000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>80000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>82500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>82300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>80500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>79300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>80900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>75800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>75900</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5113,8 +5259,11 @@
       <c r="AE62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>594700</v>
+      </c>
+      <c r="E66" s="3">
         <v>530800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>555100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>538700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>510000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>509900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>481400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>437000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>327600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>283600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>298200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>303500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>248700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>266400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>288300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>270300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>238600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>220600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>256100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>270700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>233500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>213800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>220400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>200</v>
       </c>
       <c r="AB66" s="3">
         <v>200</v>
       </c>
       <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD66" s="3">
         <v>100</v>
       </c>
-      <c r="AD66" s="3">
-        <v>0</v>
-      </c>
       <c r="AE66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5722,25 +5890,25 @@
         <v>55000</v>
       </c>
       <c r="P70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Q70" s="3">
         <v>64200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>62500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>60900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>59300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>57700</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>56200</v>
-      </c>
-      <c r="V70" s="3">
-        <v>55000</v>
       </c>
       <c r="W70" s="3">
         <v>55000</v>
@@ -5749,11 +5917,11 @@
         <v>55000</v>
       </c>
       <c r="Y70" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Z70" s="3">
         <v>55200</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>160900</v>
+      </c>
+      <c r="E72" s="3">
         <v>166500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>162900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>163200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>164600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>156900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>125100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>96800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>79900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>48900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>23600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1700</v>
       </c>
-      <c r="X72" s="3">
-        <v>0</v>
-      </c>
       <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-500</v>
-      </c>
-      <c r="AD72" s="3">
-        <v>-400</v>
       </c>
       <c r="AE72" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E76" s="3">
         <v>271600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>268100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>237000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>232100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>229800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>206100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>179700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>141500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>85500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>94200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>84100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>77300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>75400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>76800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>79600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>78100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>76500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>77500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>78500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>75300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>28400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>40700</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>40800</v>
       </c>
       <c r="AC76" s="3">
         <v>40800</v>
       </c>
       <c r="AD76" s="3">
-        <v>41000</v>
+        <v>40800</v>
       </c>
       <c r="AE76" s="3">
         <v>41000</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,182 +6581,188 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>9900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD81" s="3">
         <v>-100</v>
@@ -6575,8 +6770,11 @@
       <c r="AE81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,25 +6806,26 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4400</v>
       </c>
       <c r="F83" s="3">
         <v>4400</v>
       </c>
       <c r="G83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H83" s="3">
         <v>4200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4100</v>
       </c>
       <c r="I83" s="3">
         <v>4100</v>
@@ -6635,53 +6834,53 @@
         <v>4100</v>
       </c>
       <c r="K83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3200</v>
       </c>
       <c r="N83" s="3">
         <v>3200</v>
       </c>
       <c r="O83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>2700</v>
       </c>
       <c r="S83" s="3">
         <v>2700</v>
       </c>
       <c r="T83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U83" s="3">
         <v>2600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1600</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6697,8 +6896,11 @@
       <c r="AE83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,85 +7356,88 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E89" s="3">
         <v>39500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-64500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-17400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-83500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>58800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>24800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>58300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>67500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-27800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>28900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-23000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-100</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
@@ -7229,10 +7446,13 @@
         <v>-100</v>
       </c>
       <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,80 +7484,81 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7353,8 +7574,11 @@
       <c r="AE91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,82 +7758,85 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-33600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-66500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-7200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-78300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>11600</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>100</v>
       </c>
       <c r="AB94" s="3">
         <v>100</v>
@@ -7615,13 +7845,16 @@
         <v>100</v>
       </c>
       <c r="AD94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7713,11 +7947,11 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,86 +8252,89 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-24000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>41800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>41700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>16800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>118900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>26600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-26900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>36000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-32400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>34700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-21300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>23400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>90900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-11400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
@@ -8096,10 +8342,13 @@
         <v>0</v>
       </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8187,80 +8436,83 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>15800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>24900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>18300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
@@ -8271,9 +8523,12 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
